--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BANK DATA\Matakuliah-Semester 7\Temu Kembali Informasi\UTS\Dataset-Narkotika_2022-025_2022-482\Overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE8FF1-B270-4572-B40C-57C2FE2361E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8F0CD-BF82-453B-844B-756B71BF4B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="156">
   <si>
     <t>No Putusan</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>107/Pid.Sus/2023/PN Tgl</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa I AKHMAD ADRYANSYAH Bin SAHUDI dan Terdakwa II FAIZ KHOERUL UMAM Bin SUGENG SISWONDO tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Penyalah guna Narkotika sebagaimana dalam dakwaan Pertama Penuntut Umum.;
-Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 1 (satu) tahun dan 2 (dua) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Para Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>1 (satu) paket shabu dengan berat kotor / bruto 0,91 (nol koma sembilan puluh satu) gram yang dibungkus dengan plastik klip putih bening yang dilapisi kertas warna merah kemudian disimpan didalam bekas bungkus rokok Gudang Garam Signature.
@@ -55,27 +49,12 @@
 1 (satu) unit Handphone merk Xiaomi Redmi Note 8, warna Hitam, Nomor IMEI 1 : 863144043245861, Nomor IMEI 2 : 863144043245879, Nomor Simcard : 085788172393.</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa MASHURI bin WAJUM tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Penyalahgunaan Narkotika Golongan I bagi diri sendiri sebagaimana diatur dalam dakwaan alternatif ketiga;
-Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 1(satu) tahun dan menjalani rehabilitasi rawat jalan selama : 6 (enam ) bulan di BNN Kota Tegal setelah menjalani pidana penjara.
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi sabu dengan berat bersih 0,15741 gram;
 1 (satu) unit handphone OPPOF9 warna merah muda berikut Sim - Cardnya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Terdakwa I DEO HARIRI Bin CUSRINTO dan Terdakwa II NIKO FIRDAUS Bin PUJI SURATNO bersalah melakukan tindak pidana ? MELAKUKAN PERMUFAKATAN JAHAT TANPA HAK MENGUASAI NARKOTIKA GOLONGAN 1 BUKAN TANAMAN ? ;
-Menjatuhkan pidana terhadap Terdakwa I DEO HARIRI Bin CUSRINTO dengan pidana penjara selama 4 (empat) tahun dan 6 (enam) dan Terdakwa II NIKO FIRDAUS Bin PUJI SURATNO dengan pidana penjara selama 4 (empat) tahun ;
-Menjatuhkan pidana denda kepada para Terdakwa sejumlah Rr1.000.000.000,00(satu milyar) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh para Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik bening berisi sabu dengan berat 0,17397 gram
 1 (satu) buah bungkus roko Sampoerna Mild,</t>
-  </si>
-  <si>
-    <t>Menyatakan penuntutan Penuntut Umum dalam perkara Pidana Nomor 86/Pid.Sus/2023/PN Tgl atas nama Terdakwa YUSAK ADINOTO Bin. BIAN HO gugur karena meninggal dunia ;</t>
   </si>
   <si>
     <t>86/Pid.Sus/2023/PN Tgl</t>
@@ -93,12 +72,6 @@
 1 (satu) buah korek gas warna merah;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa DIKA HAIKAL IJUDIN Bin AMIN bersalah melakukan tindak pidana ?TANPA HAK MENGUASAI DAN MEMILIKI NARKOTIKA GOLONGAN I DALAM BENTUK TANAMAN?;
-Menjatuhkan pidana terhadap Terdakwa DIKA HAIKAL IJUDIN Bin AMIN dengan pidana penjara selama 4 (empat) tahun;
-Menjatuhkan pidana denda kepada Terdakwa DIKA HAIKAL IJUDIN Bin AMIN sejumlah Rp.1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan;</t>
-  </si>
-  <si>
     <t>1 (satu) paket berisi Ganja dengan berat 5,41747 gram terbungkus plastik bening transparan didalam amplop warna orange bergambar kartun bertuliskan SELAMAT HARI RAYA IDUL FITRI;</t>
   </si>
   <si>
@@ -109,30 +82,11 @@
 2 (dua) kertas minyak warna coklat</t>
   </si>
   <si>
-    <t>1. Menyatakan Terdakwa AHMAD BAWAZIR alias ASENG Bin MUHAMMADterbukti secarasah dan menyakinkan bersalah melakukan tindakpidana ?Tanpa izin dan Melawan Hukum Menyimpan Narkotika Golongan I dalam bentuk tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 111 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam dakwaan kedua;
-2. Menjatuhkan pidana kepada Terdakwaoleh karena itudengan pidana penjara selama 4 (empat) Tahun danDenda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuanapabila denda tersebut tidak dibayar diganti denganpidana penjaraselama 1(satu)Bulan;
-3 Menetapkanlamanya masa penangkapan dan penahananyangtelah dijalani Terdakwa dikurangkan seluruhnya dari pidanayang dijatuhkan;
-4. Menetapkan agar Terdakwatetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi sabu dengan berat bersih serbuk Kristal 0,17764 gram gram
 1 (satu) buah bungkus rokok SAMPOERNA MILD;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa HERI FIRMANSYAH alias KECRET Bin SUWATNObersalah melakukan tindak pidana ?TANPA HAK MENGUASAI NARKOTIKA GOLONGAN 1 BUKAN TANAMAN ? ;
-Menjatuhkan pidana terhadap Terdakwa HERI FIRMANSYAH alias KECRET Bin SUWATNO dengan pidana penjara selama 5 (lima) tahun, dikurangi selama terdakwa berada dalam tahanan ;
-Menjatuhkan pidana denda kepada Terdakwa HERI FIRMANSYAH alias KECRET Bin SUWATNO sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi sabu dengan berat dengan berat 0,36549 gram berisolasi bening terbungkus plastik warna orange karena merupakan alat, sarana untuk melakukan tindak pidananya maka</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa DWI YOGA PRASETIO bin SUDARTO bersalah melakukan tindak pidana ?TANPA HAK MENGUASAI NARKOTIKA GOLONGAN 1 BUKAN TANAMAN ? ;
-Menjatuhkan pidana terhadap Terdakwa DWI YOGA PRASETIO bin SUDARTO dengan pidana penjara selama 4 (empat) tahun ;
-Menjatuhkan pidana denda kepada Terdakwa DWI YOGA PRASETIO bin SUDARTO sejumlah Rp 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 2 (dua) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan ;</t>
   </si>
   <si>
     <t>65/Pid.Sus/2023/PN Tgl</t>
@@ -292,31 +246,13 @@
 1 (satu) buah Hp, merk Oppo Reno 7Z 5G warna hitam berikut SimCard;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Syamsu Rijaal als.dadang als Suwek Bin (alm) Iman Arifin tersebut di atastelah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum memiliki, menguasai atau menyimpan Narkotika Golongan I Bukan Tanaman? sebagaimana dalam dakwaan Alternatif kedua:
-Menjatuhkan pidana kepada Terdakwa Syamsu Rijaal als.dadang als Suwek Bin (alm) Iman Arifin oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta Rupiah) dengan ketentuan apabila tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>1 (satu) unit hanphone VIVO Y22 warnaBiru berikut kartu Sim Card-nya;</t>
-  </si>
-  <si>
-    <t>1. Menyatakan Terdakwa DIMAS SAPUTRA alias ARAB Bin SUMANTO terbukti secarasah dan menyakinkan bersalah melakukan tindakpidana ?Pemufakatan Jahat SecaraTanpa Hak DanMelawan HukumMenjadi Perantara Jual Beli Narkotika Golongan Isebagaimana dalam dakwaankedua;
-2. Menjatuhkan pidana kepada Terdakwaoleh karena itudengan pidana penjara selama 5 (Lima) Tahun danDenda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuanapabila denda tersebut tidak dibayar diganti denganpidana penjaraselama 3(Tiga)Bulan;
-3. Menetapkanlamanya masa penangkapan dan penahananyangtelah dijalani Terdakwa dikurangkan seluruhnya dari pidanayang dijatuhkan;
-4 Menetapkan agar Terdakwatetap ditahan;</t>
   </si>
   <si>
     <t>1 (satu) plastik bening berisi tembakau Goriladengan berat 5,27065 gram;
 1 (satu) buah bungkus rokok BAGAS;
 9(Sembilan) butir obat dalam kemasan warna silver bertuliskan TRAMADOL HCL Tablet 50mg;
 9(sembilan) obat dalam kemasan warna silver bertuliskan TRAMADOL HCL tablet 50mg,</t>
-  </si>
-  <si>
-    <t>1. Menyatakan terdakwa I WAHYU Bin SULTONIdan terdakwa II RAFLIADITIA Bin MOEY terbukti secarasah dan menyakinkan bersalah melakukan tindakpidana ?Pemufakatan Jahat SecaraTanpa Hak DanMelawan Hukum MenjadiPerantara Jual Beli Narkotika Golongan Isebagaimana dalam dakwaankedua;
-2. Menjatuhkan pidana kepada Para Terdakwaoleh karena itudengan pidana penjara masing-masing selama 5 (Lima) Tahun dan6 (Enam) bulan DanDenda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuanapabila denda tersebut tidak dibayar diganti denganpidana penjaramasing-masing selama 3(Tiga)Bulan;
-3. Menetapkanlamanya masa penangkapan dan penahananyangtelah dijalani Para Terdakwa dikurangkan seluruhnya dari pidanayang dijatuhkan;
-4. Menetapkan agar Para Terdakwatetap ditahan;</t>
   </si>
   <si>
     <t>serbuk Kristal dengan berat bersih 10,48 gram (ditimbang berikut pembungkusnya)
@@ -326,43 +262,19 @@
 1 (satu) buah tas ransel warna hitam</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa I Aswadi Bin Muhammad Nurdin Dan Terdakwa II Mutikwo Darmo Saputro Bin Darmo tersebut telah terbukti secara sah dan meyakinkan bersalah melakukan tindak ?Tanpa Hak Atau Melawan Hukum melakukan Pemufakatan Jahat memperjualbelikan Narkotika Golongan I Dalam Bentuk Bukan Tanaman Beratnya Melebihi 5 (Lima) Gram, sebagaimana diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Nomor 35 Tahun 2009 Tentang Narkotika, sebagaimana dalam dakwaan Kedua .?;
-Menjatuhkan pidana kepada Para terdakwa oleh karenaitu dengan pidana penjara masing-masing selama 9 (sembilan) tahun dan dendaRp. 1.000.000.000,00 (satu milyar rupiah), dengan ketentuan apabia denda tersebut tidak dibayar diganti dengan pidana penjara masing-masing selama 3 (Tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa II Mutikwo Darmo Saputro Bin Darmo dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Para Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik bening berisi sabu dengan berat kotor 6,36 gram (ditimbang berikut pembungkusnya) Penyisihan dari 51,83 gram
 1 (satu) buah timbangan digital;
 1 (satu) plastik isi plastik klip ukuran kecil;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Aswadi Bin Muhammad Nurdin tersebut telah terbukti secara sah dan meyakinkan bersalah melakukan tindak ?tanpa hak atau melawan hukum menjual Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram, sebagaimana diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Nomor 35 Tahun 2009 Tentang Narkotika, sebagaimana dalam dakwaan Kedua .?;
-Menjatuhkan pidana kepada terdakwa oleh karenaitu dengan pidana penjara selama 10 (sepuluh) tahun dan denda Rp. 1.000.000.000,00 (satu milyar rupiah), dengan ketentuan apabia denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (Tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi serbuk kristal dengan berat bersih 1,08886 gram (SISA HASIL UJI LAB)
 1 (satu) buah bungkus rokok MALBORO,
 1 (satu) buah bungkus plastik minuman serbuk the TEAJUS,</t>
   </si>
   <si>
-    <t>Menyatakanterdakwa ADE MIFTA ARISKI Bin HERIYANTO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK DAN MELAWAN HUKUM MEMILIKI DAN MENGUASAI NARKOTIKA GOLONGAN I BUKAN TANAMAN ? sebagaimana diatur dan diancam pidana dalam pasal 112 ayat (1) UU Nomor 45 tahun 2009 tentang NARKOTIKA dalam dakwaan KESATU;
-Menjatuhkan pidana kepadaterdakwa ADE MIFTA ARISKI Bin HERIYANTO dengan pidana penjara selama5 (lima) tahun dandenda sebesar Rp.1.000.000.000,00 (satu milayar rupiah)dengan ketentuan apabila denda tidak dibayar maka diganti dengan pidana penjara selama3 (tiga)bulan;
-Menyatakan masa penangkapan dan penahanan yang telah dijalani terdakwa dikurangkan dari pidana yg dijatuhkan;
-Menyatakan Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi sabu dengan berat bersih 1,37649 gram;sisa hasil uji laboratorium
 1 (satu) buah bekas bungkus rokok ESSE CHANGE JUICY;
 1 (satu) buah bekas GOOD DAY CAPUCINO;</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa RIZQI RHAMADAN Alias ACIL Bin SUPRAPTO terbukti secara sah dan menyakinkan menurut hukum bersalah melakukan tindak pidana ? Dengan melawan hukum menyimpan Narkotika Golongan I sebagaimana dalam dakwaan kedua;
-Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6(enam) Tahun dan Denda sejumlah Rp.1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3(tiga) Bulan;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>Tembakau Gorilla dengan berat bersih 4,55889 gram;
@@ -371,42 +283,17 @@
 1 (satu) buah bungkus rokok ESSE PUNCH POP;</t>
   </si>
   <si>
-    <t>Menyatakan terdakwa I DIKA MIFTAHULILMI alias AHUL Bin KASTORI dan terdakwa II MOHAMMAD HANIF ALDIFARI Bin SUTRISNO terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Permufakatan jahat tanpa hak atau melawan hukum memiliki, menguasai atau menyimpan Narkotika golongan I bukan tanaman?;
-Menjatuhkan Pidana terhadap Terdakwa I dan Terdakwa II masing masing dengan Pidana penjara selama 4 (empat) tahun dan Denda Rp. 800.000.000,- (delapan ratus juta rupiah) apabila tidak dibayar diganti dengan Pidana Penjara selama 1 (satu) bulan;
-Menetapkan masa Penangkapan dan Penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari Pidana yang dijatuhkan;
-Menetapkan Para Terdakwa tetap berada dalam Tahanan;</t>
-  </si>
-  <si>
     <t>1) 1 (satu) paket sabu yang di bungkus dengan plastik putih bening dengan berat bersih / Neto 0,13074 gram (nol koma tiga satu nol tujuh empat) yang di simpan di dalam potongan sedotan plastik warna hitam yang di simpan di dalam potongan sedotan plastik warna hitam;</t>
-  </si>
-  <si>
-    <t>1. Menyatakan Terdakwa I Kurniawan Bin Wasroni dan Terdakwa II Marsidin Bin Yatin tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Turut Serta Tanpa Hak Menguasai Narkotika Golongan I Bukan Tanaman? sebagaimana dalam dakwaan tunggal;
-2. Menjatuhkan pidana kepada Terdakwa I Kurniawan bin Wasroni dengan pidana penjara selama 5 (Lima) Tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan
-3. Menjatuhkan pidana kepada Terdakwa II Marsidin bin Yatin selama 4 (Empat) Tahun dan denda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan;
-4. Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-5. Menetapkan Para Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>Sebuah tas selempang warna biru dongker merk JFR yang berisi 1 (satu) paket Shabu yang dibungkus dengan plastik klip putih bening dengan berat bersih / neto 0,07701 (nol koma nol tujuh tujuh nol satu) gram, yang disimpan di dalam potongan sedotan plastik warna hitam kemudian disimpan didalam bekas kotak permen HAPPYDENT;
 1 (satu) paket Shabu yang dibungkus dengan 2 (dua) buah plastik klip putih bening dengan berat bersih / neto 0,28320 (nol koma dua delapan tiga dua nol) gram, kemudian disimpan didalam bekas bungkus rokok merk CLIMAX;</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa Dedi Apriliyanto Bin Karyono tersebut di atas, terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?tanpa hak menguasai Narkotika Golongan I bukan tanaman? sebagaimana dalam dakwaan tunggal;
-Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan 6 (enam) bulan dan denda sejumlah Rp1.000.000.000,- (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
   </si>
   <si>
     <t>1 (satu) paket shabu dibungkus klip putih bening dengan berat bersih 0,20461 gram
 1 (satu) buah alat hisap bong terbuat dari botol kaca Iceland terpasang 2 (dua) sedotan plastik putih dan terpasang pipet kaca berisi shabu dengan berat bersih 0,01880 gram
 1 (satu) buah korek api gas warna orange
 1 (satu) unit handphone merk Samsung J7 warna hitam dengan nomor IMEI 1 :358796080316988, IMEI 2 : 358797080316986, Nomor Simcard : 0895406098302</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa Feri Triawan bin Moh. Takbir telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara melawan hukum menguasai narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum;
-Menjatuhkan pidana kepada Terdakwa Feri Triawan bin Moh. Takbir berupa pidana penjara selama 7(tujuh) tahun dan 6 (enam) bulan dan denda sebesar Rp. 100.000.000,- (seratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga)bulan dikurangkan selama terdakwa berada dalam tahanan dengan perintah agar terdakwa tetap ditahan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
   </si>
   <si>
     <t>1 (satu) plastik klip serbuk kristal seberat 4,89231 gram;
@@ -422,22 +309,10 @@
 1 (satu) unit Handphone OPPO F9 Max warna biru berikut SIM Card-nya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Ivan Septian Fahmi alias Madam Bin Abi Khulaemi tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak dan melawan hukum menjadi perantara dalam jual beli Narkotika Golongan I bukan tanaman yang beratnya melebihi 5 (lima) gram sebagaimana diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 Tentang Narkotika sebagaimana dalam dakwaan primer Penuntut Umum;
-Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah), apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi Sabu dengan berat 0,50 gram (ditimbang berikut plastik-nya) berlapis isolasi warna hijau;
 1 (satu) buah bong / alat hisap dari botol plastik warna bening bertuliskan PINI CLO Zamzam Water;
 1 (satu) buah korek gas warna hijau;
 1 (satu) buah pipet kaca;</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa Ratna Sari Als Naura Binti Sukirno tersebut di atas, terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ? tanpa hak memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum;
-Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (Empat ) tahun dan 6 (enam ) bulan dan denda sebesar Rp1.000.000.000,00 (satu miliyar rupiah) dengan ketentuan bahwa jika denda tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
   </si>
   <si>
     <t>1 (satu) plastik klip ukuran sedang berisi Sabu dengan berat 0,22 gram (ditimbang berikut plastik klip-nya);
@@ -454,12 +329,6 @@
 1 (satu) unit Handphone OPPO Reno 4 warna biru berikut SIM Card-nya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Agus Sudrajat Bin Suryat telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara melawan hukum menguasai narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum;
-Menjatuhkan pidana kepada Terdakwa Agus Sudrajat Bin Suryat berupa pidana penjara selama 5 (lima) tahun dan denda sebesar Rp.1.000.000.000 (Satu Milyar Rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan dikurangkan selama terdakwa berada dalam tahanan dengan perintah agar terdakwa tetap ditahan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip ukuran sedang berisi Sabu dengan berat 0,46 gram (ditimbang berikut plastik klip-nya).
 3 (tiga) plastik klip ukuran kecil berisi Sabu dengan total berat 0,53 gram (ditimbang berikut plastik klip-nya).
 1 (satu) buah cangklong (alat hisap Sabu) yang terbuat dari kaca bening.
@@ -473,12 +342,6 @@
 1 (satu) unit Handphone Realme C2 warna biru berikut SIM Cardnya,</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa HARTONO alias TONO Bin PARYANTO telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?MENGUASAI NARKOTIKA GOLONGAN i ? sebagaimana diatur dan diancam pidana dalam Pasal 112 ayat (1) UU Nomor 35 tahun 2009 tentang NARKOTIKA dalam dakwaan KEDUA Penuntut Umum;
-Menjatuhkan pidana penjara kepada Terdakwa tersebut oleh karena itu selama 5 (lima ) tahun dikurangi selama Terdakwa berada dalam tahanan, dan Denda 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan
-Memerintahkan agar Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi Tembakau Gorila dengan berat 8,42 gram (ditimbang berikut plastik-nya);
 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 3,80 gram (ditimbang berikut plastik-nya);
 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 1,79 gram (ditimbang berikut plastik-nya);
@@ -487,12 +350,6 @@
 1 (satu) buah botol semprot warna hijau putih berisi cairan warna agak kecoklatan dengan berat 123,40 gram;
 1 (satu) unit Handphone IPHONE 11 warna merah berikut SIM Card-nya
 Dirampas untuk dimusnahkan</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa I MUHAMMAD HILMI MAHFUZH Bin KRESA BUDIATNO bersama-sama dengan Terdakwa II RUDI HARTONO alias JAYENG Bin ATMO terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Mereka yang melakukan, yang menyuruh melakukan dan turut serta melakukan perbuatan memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I dalam bentuk tanaman? sebagaimana diatur dan diancam pidana dalam Pasal 111 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika Juncto Pasal 55 ayat (1) Ke-1 KUHPidana dalam dakwaan kedua Penuntut Umum;
-Menjatuhkan pidana penjara kepada Terdakwa I MUHAMMAD HILMI MAHFUZH Bin KRESA BUDIATNO bersama-sama dengan Terdakwa II RUDI HARTONO alias JAYENG Bin ATMO masing masing selama 4 (tahun) dan 6 (enam) bulan dikurangi selama para Terdakwa berada dalam tahanan, dan Denda 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan
-Memerintahkan agar para Terdakwa tetap berada dalam tahanan;</t>
   </si>
   <si>
     <t>Tembakau Gorila dengan berat 2,77 gram yang tersimpan didalam kertas undangan;
@@ -522,33 +379,15 @@
 1 (satu) unit Handphone merk SAMSUNG A70 warna blue ocean berikut Sim Card-nya</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa SUPANDI Bin WAJUD terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum menanam dan memiliki narkotika golongan I dalam bentuk tanaman beratnya melebihi 1 (satu) Kilogram atau melebihi 5 (lima) batang pohon? sebagaimana yang diatur dan diancam pidana dalam Pasal 111 ayat (2) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan Alternatif Kedua penuntut umum;
-Menjatuhkan pidana terhadap Terdakwa SUPANDI Bin WAJUD berupa pidana penjara selama 8 (delapan) tahun dan denda sebesar Rp. 1.000.000.000,- (satu miliyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>4 (empat) plastik klip berisi Sabu dengan total berat 0,85 gram (ditimbang berikut plastik-nya);
 1 (satu) paket berisi Ganja dengan berat 335 gram (ditimbang berikut kertas pembungkus-nya) yang terbungkus kertas minyak warna coklat dan lakban coklat didalam plastik warna putih;
 1 (satu) buah box penyimpanan warna merah;
 1 (satu) unit Handphone OPPO A5s warna biru berikut SIM Card-nya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Syaefudin Lubis alias Cecep Bin Muhamad Busro tersebut di atas telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum memiliki, menguasai atau menyediakan Narkotika Golongan I dalam bentuk tanaman dan Bukan Tanaman;
-Menjatuhkan pidana kepada Terdakwa Syaefudin Lubis alias Cecep Bin Muhamad Busro oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta Rupiah) dengan ketentuan apabila tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>1 (satu) buah KTP atasnama Rafi Suhadi dengan NIK 3375012011790008
 Dikembalikan kepada Terdakwa
 1 (satu) unit Handphone merk OPPO Warna Biru tua dengan Nomor SIM Card 0882006869045 dan dengan nomor imai 1 867756053218433, imei 2 867756053218425</t>
-  </si>
-  <si>
-    <t>1. Menyatakan Terdakwa RAFI SUHADI Als RAFA Als KUPING Bin (alm ) AHMAD SAUD telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Percobaan atau permufakatan jahat untuk melakukan tindak pidana Narkotika dan prekusor narkotika tanpa hak atau melawan hukum menawarkan untuk menjadi perantara dalam jual beli, menukar atau menyerahkan narkotika golongan I yang dalam bentuk tanaman beratnya melebihi 1 (satu) kilogram atau melebihi 5 (lima) batang pohon? sebagaimana yang diatur dan diancam pidana dalam Pasal 132 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika Jo Pasal 114 ayat (2) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan Primair penuntut umum;
-Menjatuhkan pidana penjara kepada Terdakwa tersebut diatas oleh karena itu selama 8 (delapan) tahun dan 6 (enam) bulan dan Denda 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan
-Memerintahkan agar Terdakwa tetap berada dalam tahanan;</t>
   </si>
   <si>
     <t>6 (enam) plastik klip berisi Sabu dengan total berat 1,75 gram (ditimbang berikut plastik-nya) yang dikemas dalam potongan bungkus snack didalam bungkus permen HEXOS
@@ -560,12 +399,6 @@
 1 (satu) unit Handphone INFINIX Hot 10 warna hijau tosca berikut SIM Card-nya</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Rizal Ardiyanto Alias Boncel Bin Sunarto dan Terdakwa Arifin Alias Daripin Bin Cipto tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Turut Serta Tanpa Hak Menguasai Narkotika Golongan I Bukan Tanaman sebagaimana dalam dakwaan Alternatif Kedua;
-Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 4 (empat) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Para Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>7 (tujuh) plastik klip berisi Sabu dengan total berat 0,99 gram (ditimbang berikut plastik-nya);
 6 (enam) butir tablet dalam kemasan silver bertuliskan AM ORIGINAL ASLI;
 3 (tiga) buah cangklong (alat hisap sabu);
@@ -575,18 +408,7 @@
 1 (satu) unit Handphone VIVO 1819 warna biru berikut SIM Card-nya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Nata Suharta Bin Suroso telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum;
-Menjatuhkan pidana kepada Terdakwa Nata Suharta Bin Suroso berupa pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan, dikurangkan selama terdakwa berada dalam tahanan dengan perintah agar terdakwa tetap ditahan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>1 (satu) unit Handphone SAMSUNG S5 warna putih berikut SIM Card, dirampas untuk dimusnahkan</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa RIZKI NABILA DIFA alias Dipa binti MUH. KHASANI tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Turut serta tanpa hak dan melawan hukum menguasai Narkotika golongan I sebagaimana diatur dalam dakwaan alternatif kedua;
-Menjatuhkan pidana terhadap Terdakwa berupa pidana penjara selama 4 (empat) tahun dan 6 (enam) bulan penjara dikurangi selama Terdakwa berada dalam tahanan dengan perintah agar Terdakwa tetap ditahan;
-Menjatuhkan denda sejumlah Rp1.000.000.000 (satu milyar rupiah) apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan;</t>
   </si>
   <si>
     <t>1 (satu) plastik klip berisi Sabu dengan berat 0,27 gram (ditimbang berikut plastik-nya) terbungkus plastik warna merah muda
@@ -602,20 +424,7 @@
 1 (satu) unit Handphone OPPO A83 warna rose gold berikut SIM Card-nya</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Tri Budiarto Alias Kimos Bin Mochamad Chusni terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Tanpa Hak dan Melawan Hukum melakukan persengkokolan menguasai Narkotika Golongan I bukan tanaman dan tindak pidana menguasai Psikotropika sebagaimana diatur dalam dakwaan Alternatif kedua dan Kumulatif kedua;
-Menjatuhkan pidana terhadap Terdakwa berupa pidana penjara selama 6 (enam) tahun;
-Menjatuhkandenda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1(satu) bulan;
-Memerintahkan masa penangkapan dan penahanan dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>86/Pid.Sus/2025/PN Tgl</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa MOH MUNAJI bin TARSONO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum, menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika golongan I dalam bentuk bukan tanaman yang beratnya melebihi 5 (lima) gram? dalam Prmair Penuntut Umm;
-Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>1 (satu) paket sabu dalam bungkus plastik klip bening dibungkus lagi dengan potongan plastik keresek warna hitam.
@@ -634,12 +443,6 @@
     <t>1 (satu) plastik klip berisi Sabu dengan berat 0,37 gram (ditimbang berikut plastik klip-nya) berlapis tissue warna putih dan terbungkus hansaplast warna coklat.
 1 (satu) buah bungkus permen WOODS warna kuning biru;
 1 (satu) unit Handphone REALME C51 warna hitam, No. Imei 1 : 868534066776195/72, No. Imei 2 : 868534066776187/72 berikut SIM Card-nya;</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa KAMALI Bin H. SALEH telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ? tanpa hak atau melawan hukum memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam Dakwaan Kedua Penuntut Umum;
-Menjatuhkan pidana kepada Terdakwa KAMALI Bin H. SALEH tersebut oleh karena itu dengan pidana penjara selama :4(empat tahun, 6 (enam) bulan dan denda sejumlah Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama :1(satu) tahun .
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t xml:space="preserve"> 1 (satu) plastik klip berisi Sabu dengan berat 0,26 gram (ditimbang berikut plastik klip-nya) berlapis plastik warna putih hijau;
@@ -656,21 +459,9 @@
 - 1 (satu) buah Handphone VIVO Y71 warna hitam</t>
   </si>
   <si>
-    <t>1. Menyatakan Terdakwa Mohamad Fahmi Bin Fauzi telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki, menyimpan, narkotika golongan I bukan tanaman? sebagaimana diatur dan diancam pidana dalam Pasal 112 ayat (1) UU Nomor 35 tahun 2009 tentang narkotika dalam dakwaan alternative Kedua Penuntut Umum;
-2. Menjatuhkan pidana penjara kepada Terdakwa Mohamad Fahmi Bin Fauzi tersebut oleh karena itu dengan pidana penjara selama 5 (lima) tahun dikurangi selama Terdakwa berada dalam tahanan, dan Denda sebesar Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan;
-3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-4. Memerintahkan agar Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>2 (dua) plastik klip berisi Sabu dengan total berat 4,85 gram (ditimbang berikut plastik klip-nya) berlapis plastik warna hitam;
 1 (satu) bungkus rokok MAGNUM FILTER warna hitam;
 1 (satu) unit Handphone OPPO A37 warna hitam dengan No. Imei 1: 865642037498493, No. Imei 2: 865642037498485 berikut SIM Card-nya</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa TIRTO AGUNG TRI CAHYONO Alias LALA Bin SAHROWI telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki, menyimpan, narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan Kedua penuntut umum;
-Menjatuhkan pidana terhadap Terdakwa TIRTO AGUNG TRI CAHYONO Alias LALA Bin SAHROWI tersebut oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan.
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>plastik klip-nya) berlapis kerta aluminium foil warna merah dan silver berlapis lakban hitam dan isolasi double tip;
@@ -695,31 +486,13 @@
 1 (satu) buah Handphone VIVO Y21 warna diamond glow dengan No. IMEI 1: 868093053154551, No. Imei 2: 868093053154544;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Agusman Alias Agus Bin Hamzah terbukti secara sah dan meyakinkan menurut hukum bersalah melakukan tindak pidana tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I (satu) bukan tanaman yang beratnya melebihi 5 gram sebagaimana yang diatur dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 tahun 2009 tentang Narkotika tentang Narkotika sebagaimana dakwaan alternatif Pertama;
-Menjatuhkan pidana kepada Terdakwa Agusman Alias Agus Bin Hamzah oleh karena itu dengan pidana penjara selama 10 (sepuluh) Tahun dan denda sebesar Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) tahun;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap berada dalam tahanan;</t>
-  </si>
-  <si>
     <t>11 (sebelas setengah) butir obat dalam kemasan warna silver bertuliskan CLONAZEPAM Tablet Salut Selaput 2 mg;
 1 (satu) unit handphone REALME C53 warna hitam dengan No. Imei 1 : 864319060101374, No. Imei 2 : 864319060101366 berikut sim card-nya;
 Dipergunakan dalam perkara lain atas nama terdakwa ALFIN SOPIAN SAPUTRO bin DORI;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa FAIZAL bin HENDRO WIRATMO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara tanpa hak menyalurkan psikotropika selain pabrik obat, pedagang besar farmasi, dan sarana penyimpanan sediaan farmasi pemerintah? dalam dakwaan tunggal;
-Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 1 (satu) tahun dan 6 (enam) bulan dengan dan denda sejumlah Rp.10.000.000,00 (sepuluh juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>11 (sebelas setengah) butir obat dalam kemasan warna silver bertuliskan CLONAZEPAM Tablet Salut Selaput 2 mg
 1 (satu) unit handphone REALME C53 warna hitam dengan No. Imei 1 : 864319060101374, No. Imei 2 : 864319060101366 berikut sim card-nya.</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa ALFIN SOPIAN SAPUTRO bin DORI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara tanpa hak menyalurkan psikotropika selain pabrik obat, pedagang besar farmasi, dan sarana penyimpanan sediaan farmasi pemerintah? dalam dakwaan tunggal
-Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 1 (satu) tahun dan 3 (tiga) bulan dengan dan denda sejumlah Rp5.000.000,00 (lima juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) bulan;
-Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>6 (enam) linting rokok berisi Tembakau Gorila dengan total berat 1,97 gram (ditimbang berikut kertas papir-nya);
@@ -732,28 +505,8 @@
 1 (satu) unit Handphone OPPO A96 warna putih dengan No. Imei 1 : 867583054440133, No. Imei 2 : 867583054440125 berikut SIM Card-nya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Jaka Saputra Bin Wasro terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Tanpa izin dan Melawan Hukum memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dalam dakwaan alternatif pertama;
-Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) Tahun dan 6 (enam) bulan dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip berisi Tembakau Gorila yang mengandung narkotika dengan berat 5,09 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih berlapis isolasi coklat;
 1 (satu) unit Handphone Samsung M15 5G warna Dark Blue dengan No. Imei 1 : 350716260818601, No. Imei 2 : 353291620818607 berikut Sim Card.</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa Dimyati Yusuf Alias Ucup Bin Faizin tidak terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana sebagaimana dalam dakwaan alternatif kesatu;
-Membebaskan Terdakwa dari dakwaan alternatif kesatu tersebut;
-Menyatakan Terdakwa Dimyati Yusuf Alias Ucup Bin Faizinterbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Tanpa izin dan Melawan Hukum Menyimpan dan menguasii Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dalam dakwaan alternatif kedua;
-Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) Bulan;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa Budi Setiawan Bin Tahril terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum Turut Serta memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika jo pasal 55 ayat (1) ke 1 KUHP dalam dakwaan kesatu;
-Menjatuhkan pidana kepada Terdakwa Budi Setiawan Bin Tahril oleh karena itu dengan pidana penjara selama 10 (sepuluh) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) Tahun;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>28 (dua puluh delapan) plastik klip berisi Tembakau Gorila dengan total berat 28,35 gram (ditimbang berikut plastik klip-nya) berlapis isolasi warna merah bertuliskan FRAGILE;
@@ -776,12 +529,6 @@
 1 (satu) unit Handphone INFINIX NOTE 40 Pro warna obsidian black, No. Imei 1 : 351272391197480, No. Imei 2 : 351272391197498 berikut SIMCard-nya;</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa Reno Aji Saputra Bin Nanang Supriyanto terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum menyuruh melakukan perbuatan mengedarkan dan memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika jo pasal 55 ayat (1) ke 1 KUHP dalam dakwaan alternatif pertama;
-Menjatuhkan pidana kepada Terdakwa Reno Aji Saputra Bin Nanang Supriyanto oleh karena itu dengan pidana penjara selama 6 (enam) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (Enam) Bulan ;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>Menyatakan Terdakwa Ramadani Andika Putra Alias Cablik Bin Raji terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum membeli dan menyediakan Narkotika Golongan I dalam bentuk tanaman dan dalam bentuk bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam dakwaan alternatif pertama dan Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 tahun 2009 tentang Narkotika;
 Menjatuhkan pidana kepada Terdakwa Andika Putra Alias Cablik Bin Raji oleh karena itu dengan pidana penjara selama 8 (delapan) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan ;
 Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
@@ -797,13 +544,6 @@
 1 (satu) pak kertas papir merk MARS BRAND;
 1 (satu) buah dompet warna merah bertuliskan PILKITA;
 1 (satu) buah timbangan digital warna silver;</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa IVAN FALERIAN alias KAMPLENG Bin ERWIN IRAWAN terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum, menjual, membeli, menjadi perantara dalam jual beli narkotika golongan I bukan tanaman melebihi 5 Lima) gram dan menyimpan atau membawa psikotropika? sebagaimana diatur dan diancam pidana sebagaimana dalam Dakwaan Komulatif;
-Menjatuhkan Pidana terhadap Terdakwa IVAN FALERIAN alias KAMPLENG Bin ERWIN IRAWAN oleh karena itu dengan Pidana penjara selama 5 (lima) Tahun;
-Menghukum Terdakwa IVAN FALERIAN alias KAMPLENG Bin ERWIN IRAWAN untuk membayar denda sebesar Rp. 1.400.000.000,- (satu milyar emapt ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan, maka akan di ganti pidana kurungan selama 3 (tiga) Bulan penjara;
-Menetapkan lamanya masa penangkapan dan penahanan sementara yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari Pidana yang dijatuhkan ;
-Menetapkan agar Terdakwa tetap berada dalam tahanan ;</t>
   </si>
   <si>
     <t>12 (dua belas) plastik klip berisi Sabu dengan total berat 3,12 gram (ditimbang berikut plastik klip-nya) terbungkus sedotan warna biru;
@@ -835,12 +575,6 @@
 1 (satu) unit Handphone TECHNO SPARK Go 1 warna grey dengan No. Imei 1 : 356855271081405, No. Imei 2 : 356855271081413 berikut Sim Card- nya;</t>
   </si>
   <si>
-    <t>1. Menyatakan Terdakwa Sutarno Alias Nano Bin Markonah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana menjadi Perantara jualbeli Narkotika Golongan I jenis sabu? sebagaimana diatur dan diancam pidana dalam Pasal 114 Ayat (1) Undang-Undang Republik Indonesia No.35 Tahun 2009 Tentang Narkotika sebagaimana dalam Dakwaan alternatif kesatu Penuntut Umum
-2. Menjatuhkan pidana kepada Terdakwa Sutarno Alias Nano Bin Markonah Supriyanto oleh karena itu dengan pidana penjara selama 7 (Tujuh) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan ;
-3. Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-4. Menetapkan agar Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>2 (dua) plastic klip sabu sabu dengan total berat 0,49 gram (ditimbang berikut plastic klipnya)
 1 (satu) plastic klip berisi 8 (delapan) plastic klip berisi sabu sabu dengan total berat 2, 26 gram (di timbang berikut plastic klipnya ) masing masing berlapis isolasi bening.
 10 (sepuluh) plastic klip berisi sabu dengan total berat 5,53 gram (di timbang berikut plastic klipnya ) masing masing berlapis isolasi bening dan terbungkus wara merah bertuliskan FRAGILE
@@ -857,12 +591,6 @@
 1 (satu) buah kartu ATM Bank BCA warna gold denga no kartu : 5307 9521 1328 8352
 1 (satu) buah bong (hisap) yang terbuat dari botol plastic Le Minerale
 1 (satu) handphone VIVO Y 16 warna stellar black dengan No .Imel 1: 860033066808593, No.Imei 2 :8600330668585 berikut SIM Card nya .</t>
-  </si>
-  <si>
-    <t>Menyatakan Terdakwa Agus Santoso alias Gondrong Bin Fudoli terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana menjual Narkotika Golongan I dalam bentuk bukan tanaman beratnya 5 ( lima ) gram sebagaimana diatur dan diancam pidana dalam Pasal 114 Ayat (2) Undang-Undang Republik Indonesia No.35 Tahun 2009 Tentang Narkotika sebagaimana dalam Dakwaan alternatif kesatu Penuntut Umum;
-Menjatuhkan pidana kepada Terdakwa Agus Santoso alias Gondrong Bin Fudoli oleh karena itu dengan pidana penjara selama 9 (sembilan) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan ;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>1 (satu) plastik klip berisi Tembakau Gorila dengan berat 8,24 gram (ditimbang berikut plastik klip-nya) berlapis isolasi besar warna coklat;
@@ -893,26 +621,12 @@
 1 (satu) buah kartu ATM Bank BCA dengan Nomor Kartu : 5379-4130-4229-1178</t>
   </si>
   <si>
-    <t>Menyatakan Terdakwa ALFIN SOPIAN SAPUTRO Bin DORI terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum mengedarkan dan memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam dakwaan alternatif pertama;
-Menjatuhkan pidana kepada Terdakwa ALFIN SOPIAN SAPUTRO Bin DORI oleh karena itu dengan pidana penjara selama 6 (enam) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 2 (dua) Bulan ;
-Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-Menetapkan agar Terdakwa tetap ditahan;</t>
-  </si>
-  <si>
     <t>1 (satu) plastik klip serbuk kristal sabu seberat 0,37744 gram;
 - 1 (satu) buah pipet kaca;
 - 1 (satu) unit HP VIVO Y91C warna merah dengan nomor Imei I : 868905043312116 dan nomor Imei II : 868905043312108 berikut Simcardnya;
 - 1 (satu) unit HP XIAOMI redme A1 warna hitam dengan nomor Imei I : 866681062051826 dan nomor Imei II : 866681062501834 berikut Simcardnya;
 Dirampas untuk dimusnahkan.
  1 (satu) unit sepeda motor HONDA BEAT warna merah putih tahun 2014 dengan Nopol terpasang : G-3022-EN, Noka MH1JFN114EK039641, Nosin : JFN1E-1049219 berikut kunci kontaknya.</t>
-  </si>
-  <si>
-    <t>1. Menyatakan Terdakwa I. SODIKIN Als. KUCING Bin. SEIN dan terdakwa II. DIDING KOMARUDIN Bin. DARYANI tidak terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana sebagaimana dalam dakwaan alternatif Kesatu
-2. Membebaskan Para Terdakwa dari dakwaan alternatif kesatu tersebut;
-3. Menyatakan Terdakwa I. SODIKIN Als. KUCING Bin. SEIN dan terdakwa II. DIDING KOMARUDIN Bin. DARYANI terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Secara Bersama-sama Tanpa izin dan Melawan Hukum Memiliki Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika Jo pasal 55 ayat(1) ke 1 KUHP sebagaimana dalam dakwaan alternatif kedua;
-4. Menjatuhkan pidana kepada para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 5 (lima) Tahun dan Denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara masing-masing selama 3 (tiga) Bulan;
-5. Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-6. Menetapkan agar Para Terdakwa tetap ditahan;</t>
   </si>
   <si>
     <t>1 (satu) plastik klip berisi Sabu dengan berat 0,27 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih didalam bungkus permen KISS warna ungu berlapis isolasi double tape warna hijau;
@@ -942,10 +656,347 @@
 - 1 (satu) buah kartu ATM Tabungan Xpresi BCA dengan Nomor Kartu : 6019-0050-5933-7423;</t>
   </si>
   <si>
+    <t>Menyatakan Terdakwa MASHURI bin WAJUM tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Penyalahgunaan Narkotika Golongan I bagi diri sendiri sebagaimana diatur dalam dakwaan alternatif ketiga; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 1(satu) tahun dan menjalani rehabilitasi rawat jalan selama : 6 (enam ) bulan di BNN Kota Tegal setelah menjalani pidana penjara. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi sabu dengan berat bersih 0,15741 gram; 1 (satu) unit handphone OPPOF9 warna merah muda berikut Sim - Cardnya;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa I AKHMAD ADRYANSYAH Bin SAHUDI dan Terdakwa II FAIZ KHOERUL UMAM Bin SUGENG SISWONDO tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Penyalah guna Narkotika sebagaimana dalam dakwaan Pertama Penuntut Umum.; Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 1 (satu) tahun dan 2 (dua) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) paket shabu dengan berat kotor / bruto 0,91 (nol koma sembilan puluh satu) gram yang dibungkus dengan plastik klip putih bening yang dilapisi kertas warna merah kemudian disimpan didalam bekas bungkus rokok Gudang Garam Signature. Sebuah celana panjang jeans warna biru merk Pull &amp; Bear. 1 (satu) unit Handphone merk Samsung Galaxy A9, warna Hitam, Nomor IMEI 1 : 355085102535160, Nomor IMEI 2 : 355086102535168, Nomor Simcard : 0886981854058. 1 (satu) unit Handphone merk Xiaomi Redmi Note 8, warna Hitam, Nomor IMEI 1 : 863144043245861, Nomor IMEI 2 : 863144043245879, Nomor Simcard : 085788172393.</t>
+  </si>
+  <si>
+    <t>Menyatakanterdakwa ADE MIFTA ARISKI Bin HERIYANTO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?TANPA HAK DAN MELAWAN HUKUM MEMILIKI DAN MENGUASAI NARKOTIKA GOLONGAN I BUKAN TANAMAN ? sebagaimana diatur dan diancam pidana dalam pasal 112 ayat (1) UU Nomor 45 tahun 2009 tentang NARKOTIKA dalam dakwaan KESATU; Menjatuhkan pidana kepadaterdakwa ADE MIFTA ARISKI Bin HERIYANTO dengan pidana penjara selama5 (lima) tahun dandenda sebesar Rp.1.000.000.000,00 (satu milayar rupiah)dengan ketentuan apabila denda tidak dibayar maka diganti dengan pidana penjara selama3 (tiga)bulan; Menyatakan masa penangkapan dan penahanan yang telah dijalani terdakwa dikurangkan dari pidana yg dijatuhkan; Menyatakan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi serbuk kristal dengan berat bersih 1,08886 gram (SISA HASIL UJI LAB) 1 (satu) buah bungkus rokok MALBORO, 1 (satu) buah bungkus plastik minuman serbuk the TEAJUS,</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa RIZQI RHAMADAN Alias ACIL Bin SUPRAPTO terbukti secara sah dan menyakinkan menurut hukum bersalah melakukan tindak pidana ? Dengan melawan hukum menyimpan Narkotika Golongan I sebagaimana dalam dakwaan kedua; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6(enam) Tahun dan Denda sejumlah Rp.1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3(tiga) Bulan; Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan agar Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi sabu dengan berat bersih 1,37649 gram;sisa hasil uji laboratorium 1 (satu) buah bekas bungkus rokok ESSE CHANGE JUICY; 1 (satu) buah bekas GOOD DAY CAPUCINO;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Aswadi Bin Muhammad Nurdin tersebut telah terbukti secara sah dan meyakinkan bersalah melakukan tindak ?tanpa hak atau melawan hukum menjual Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram, sebagaimana diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Nomor 35 Tahun 2009 Tentang Narkotika, sebagaimana dalam dakwaan Kedua .?; Menjatuhkan pidana kepada terdakwa oleh karenaitu dengan pidana penjara selama 10 (sepuluh) tahun dan denda Rp. 1.000.000.000,00 (satu milyar rupiah), dengan ketentuan apabia denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (Tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) plastik bening berisi sabu dengan berat kotor 6,36 gram (ditimbang berikut pembungkusnya) Penyisihan dari 51,83 gram 1 (satu) buah timbangan digital; 1 (satu) plastik isi plastik klip ukuran kecil;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa I Aswadi Bin Muhammad Nurdin Dan Terdakwa II Mutikwo Darmo Saputro Bin Darmo tersebut telah terbukti secara sah dan meyakinkan bersalah melakukan tindak ?Tanpa Hak Atau Melawan Hukum melakukan Pemufakatan Jahat memperjualbelikan Narkotika Golongan I Dalam Bentuk Bukan Tanaman Beratnya Melebihi 5 (Lima) Gram, sebagaimana diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Nomor 35 Tahun 2009 Tentang Narkotika, sebagaimana dalam dakwaan Kedua .?; Menjatuhkan pidana kepada Para terdakwa oleh karenaitu dengan pidana penjara masing-masing selama 9 (sembilan) tahun dan dendaRp. 1.000.000.000,00 (satu milyar rupiah), dengan ketentuan apabia denda tersebut tidak dibayar diganti dengan pidana penjara masing-masing selama 3 (Tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa II Mutikwo Darmo Saputro Bin Darmo dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: serbuk Kristal dengan berat bersih 10,48 gram (ditimbang berikut pembungkusnya) serbuk Kristal dengan berat bersih 10,76 gram (ditimbang berikut pembungkusnya) serbuk Kristal dengan berat bersih 10,35 gram (ditimbang berikut pembungkusnya) serbuk Kristal dengan berat bersih 10,88 gram (ditimbang berikut pembungkusnya) 1 (satu) buah tas ransel warna hitam</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Syamsu Rijaal als.dadang als Suwek Bin (alm) Iman Arifin tersebut di atastelah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum memiliki, menguasai atau menyimpan Narkotika Golongan I Bukan Tanaman? sebagaimana dalam dakwaan Alternatif kedua: Menjatuhkan pidana kepada Terdakwa Syamsu Rijaal als.dadang als Suwek Bin (alm) Iman Arifin oleh karena itu dengan pidana penjara selama 7 (tujuh) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta Rupiah) dengan ketentuan apabila tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 5 (lima) buah Plastik klip masing-masing dibungkus potongan plastic warna hitam lalu diisolasi bening, setiap klip berisi serbuk kristal warna putih diduga narkotika jenis sabu; 4 (empat) buah plastic klip masing-masing dibungkus potongan plastic warna putih lalu diisolasi bening, setiap klip berisi serbuk kristal warna putih diduga narkotika jenis sabu; 1 (satu) buah plastic klip bening berisi serbuk kristal warna putih yang diduga narkotika jenis sabu; 1 (satu) buah plastic klip bening berisi serbuk kristal warna putih yang diduga narkotika jenis sabu; 1 (satu) buah plastic klip bening berisi serbuk kristal warna putih yang diduga narkotika jenis sabu; 2 (dua) bungkus plastic klip bening berisikan plastic klip kecil ukuran 5x3 dengan jumlah total 47 (empat puluh tujuh) buah ; 5 (lima) buah plastic klip bekas ; 2 (dua) buah alat narkotika, sedotan plastic warna bening; 1 (satu) buah alat narkotiika, bagian bekas alat hisap narkotika berupa pipa kaca ; 1 (satu) buah, tas klip warna bening bertuliskan KAI ACCESS; 1 (satu) buah alat narkotika, timbangan digital merk ACIS mode MA-100A warna putih yang terbalut bubble wrape warna hitam; 1 (satu) buah tas tangan kecil warna silver; 1 (satu) buah, wadah plastic bekas permen karet warna merah terbalut lakban warna hitam ; 1 (satu) buah Hp, merk Oppo Reno 7Z 5G warna hitam berikut SimCard;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa DWI YOGA PRASETIO bin SUDARTO bersalah melakukan tindak pidana ?TANPA HAK MENGUASAI NARKOTIKA GOLONGAN 1 BUKAN TANAMAN ? ; Menjatuhkan pidana terhadap Terdakwa DWI YOGA PRASETIO bin SUDARTO dengan pidana penjara selama 4 (empat) tahun ; Menjatuhkan pidana denda kepada Terdakwa DWI YOGA PRASETIO bin SUDARTO sejumlah Rp 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 2 (dua) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan ; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi sabu dengan berat dengan berat 0,36549 gram berisolasi bening terbungkus plastik warna orange karena merupakan alat, sarana untuk melakukan tindak pidananya maka</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa DIMAS SAPUTRA alias ARAB Bin SUMANTO terbukti secarasah dan menyakinkan bersalah melakukan tindakpidana ?Pemufakatan Jahat SecaraTanpa Hak DanMelawan HukumMenjadi Perantara Jual Beli Narkotika Golongan Isebagaimana dalam dakwaankedua; 2. Menjatuhkan pidana kepada Terdakwaoleh karena itudengan pidana penjara selama 5 (Lima) Tahun danDenda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuanapabila denda tersebut tidak dibayar diganti denganpidana penjaraselama 3(Tiga)Bulan; 3. Menetapkanlamanya masa penangkapan dan penahananyangtelah dijalani Terdakwa dikurangkan seluruhnya dari pidanayang dijatuhkan; 4 Menetapkan agar Terdakwatetap ditahan; Menetapkan barang bukti berupa: 1 (satu) unit hanphone VIVO Y22 warnaBiru berikut kartu Sim Card-nya;</t>
+  </si>
+  <si>
+    <t>1. Menyatakan terdakwa I WAHYU Bin SULTONIdan terdakwa II RAFLIADITIA Bin MOEY terbukti secarasah dan menyakinkan bersalah melakukan tindakpidana ?Pemufakatan Jahat SecaraTanpa Hak DanMelawan Hukum MenjadiPerantara Jual Beli Narkotika Golongan Isebagaimana dalam dakwaankedua; 2. Menjatuhkan pidana kepada Para Terdakwaoleh karena itudengan pidana penjara masing-masing selama 5 (Lima) Tahun dan6 (Enam) bulan DanDenda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuanapabila denda tersebut tidak dibayar diganti denganpidana penjaramasing-masing selama 3(Tiga)Bulan; 3. Menetapkanlamanya masa penangkapan dan penahananyangtelah dijalani Para Terdakwa dikurangkan seluruhnya dari pidanayang dijatuhkan; 4. Menetapkan agar Para Terdakwatetap ditahan; Menetapkan barang bukti berupa: 1 (satu) plastik bening berisi tembakau Goriladengan berat 5,27065 gram; 1 (satu) buah bungkus rokok BAGAS; 9(Sembilan) butir obat dalam kemasan warna silver bertuliskan TRAMADOL HCL Tablet 50mg; 9(sembilan) obat dalam kemasan warna silver bertuliskan TRAMADOL HCL tablet 50mg,</t>
+  </si>
+  <si>
+    <t>Menyatakan terdakwa I DIKA MIFTAHULILMI alias AHUL Bin KASTORI dan terdakwa II MOHAMMAD HANIF ALDIFARI Bin SUTRISNO terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Permufakatan jahat tanpa hak atau melawan hukum memiliki, menguasai atau menyimpan Narkotika golongan I bukan tanaman?; Menjatuhkan Pidana terhadap Terdakwa I dan Terdakwa II masing masing dengan Pidana penjara selama 4 (empat) tahun dan Denda Rp. 800.000.000,- (delapan ratus juta rupiah) apabila tidak dibayar diganti dengan Pidana Penjara selama 1 (satu) bulan; Menetapkan masa Penangkapan dan Penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari Pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap berada dalam Tahanan; Menetapkan barang bukti berupa: Tembakau Gorilla dengan berat bersih 4,55889 gram; Tembakau Gorilla dengan berat bersih 5,31524 gram; 1 (satu) buah bungkus rokok GUDANG GARAM; 1 (satu) buah bungkus rokok ESSE PUNCH POP;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa HERI FIRMANSYAH alias KECRET Bin SUWATNObersalah melakukan tindak pidana ?TANPA HAK MENGUASAI NARKOTIKA GOLONGAN 1 BUKAN TANAMAN ? ; Menjatuhkan pidana terhadap Terdakwa HERI FIRMANSYAH alias KECRET Bin SUWATNO dengan pidana penjara selama 5 (lima) tahun, dikurangi selama terdakwa berada dalam tahanan ; Menjatuhkan pidana denda kepada Terdakwa HERI FIRMANSYAH alias KECRET Bin SUWATNO sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi sabu dengan berat bersih serbuk Kristal 0,17764 gram gram 1 (satu) buah bungkus rokok SAMPOERNA MILD;</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa AHMAD BAWAZIR alias ASENG Bin MUHAMMADterbukti secarasah dan menyakinkan bersalah melakukan tindakpidana ?Tanpa izin dan Melawan Hukum Menyimpan Narkotika Golongan I dalam bentuk tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 111 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam dakwaan kedua; 2. Menjatuhkan pidana kepada Terdakwaoleh karena itudengan pidana penjara selama 4 (empat) Tahun danDenda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuanapabila denda tersebut tidak dibayar diganti denganpidana penjaraselama 1(satu)Bulan; 3 Menetapkanlamanya masa penangkapan dan penahananyangtelah dijalani Terdakwa dikurangkan seluruhnya dari pidanayang dijatuhkan; 4. Menetapkan agar Terdakwatetap ditahan; Menetapkan barang bukti berupa: 1 (satu) paket ganja dengan total berat kurang lebih 6,74, gram, (ditimbang tanpa pembungkusnya) terbungkus kertas minyak warna coklat. 1 (satu) paket ganja dengan total berat kurang lebih 6,77 gram, (ditimbang tanpa pembungkusnya) terbungkus kertas minyak warna coklat. 1 (satu) paket ganja dengan total berat kurang lebih 9,74 gram, (ditimbang tanpa pembungkusnya) terbungkus plastik bening tarnsparan. 1 (satu) unit handphone Merek SAMSUNG Galaxy A04 warna hijau berikut Sim ?Cardnya 2 (dua) kertas minyak warna coklat</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa DIKA HAIKAL IJUDIN Bin AMIN bersalah melakukan tindak pidana ?TANPA HAK MENGUASAI DAN MEMILIKI NARKOTIKA GOLONGAN I DALAM BENTUK TANAMAN?; Menjatuhkan pidana terhadap Terdakwa DIKA HAIKAL IJUDIN Bin AMIN dengan pidana penjara selama 4 (empat) tahun; Menjatuhkan pidana denda kepada Terdakwa DIKA HAIKAL IJUDIN Bin AMIN sejumlah Rp.1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan; Menetapkan barang bukti berupa: 1 (satu) paket berisi Ganja dengan berat 5,41747 gram terbungkus plastik bening transparan didalam amplop warna orange bergambar kartun bertuliskan SELAMAT HARI RAYA IDUL FITRI;</t>
+  </si>
+  <si>
+    <t>Menyatakan penuntutan Penuntut Umum dalam perkara Pidana Nomor 86/Pid.Sus/2023/PN Tgl atas nama Terdakwa YUSAK ADINOTO Bin. BIAN HO gugur karena meninggal dunia ; Menetapkan barang bukti berupa: Menyatakan penuntutan Penuntut Umum dalam perkara Pidana Nomor 86/Pid.Sus/2023/PN Tgl atas nama Terdakwa YUSAK ADINOTO Bin. BIAN HO gugur karena meninggal dunia ; Menyatakan barang bukti berupa : 5 (lima) buah plastic klip berisi serbuk Kristal dengan berat bersih serbuk Kristal 13,62020 gram 1 (satu) buah dus lampu merk PHILIPS; 1 (satu) bendel tissue berlapis lakban warna coklat; 1 (satu) buah kertas aluminium foil; 3 (tiga) plastik isi plastik klip sedang; 1 (satu) plastik isi 10 (sepuluh) batang sedotan; 1 (satu) buah alat hisap / bong terbuat dari botol YOU C1000; 1 (satu) buah korek gas warna merah;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Terdakwa I DEO HARIRI Bin CUSRINTO dan Terdakwa II NIKO FIRDAUS Bin PUJI SURATNO bersalah melakukan tindak pidana ? MELAKUKAN PERMUFAKATAN JAHAT TANPA HAK MENGUASAI NARKOTIKA GOLONGAN 1 BUKAN TANAMAN ? ; Menjatuhkan pidana terhadap Terdakwa I DEO HARIRI Bin CUSRINTO dengan pidana penjara selama 4 (empat) tahun dan 6 (enam) dan Terdakwa II NIKO FIRDAUS Bin PUJI SURATNO dengan pidana penjara selama 4 (empat) tahun ; Menjatuhkan pidana denda kepada para Terdakwa sejumlah Rr1.000.000.000,00(satu milyar) dengan ketentuan apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani oleh para Terdakwa dikurangkan seluruhnya dari lamanya pidana yang dijatuhkan; Menetapkan barang bukti berupa: 1 (satu) plastik bening berisi sabu dengan berat 0,17397 gram 1 (satu) buah bungkus roko Sampoerna Mild,</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa I Kurniawan Bin Wasroni dan Terdakwa II Marsidin Bin Yatin tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?Turut Serta Tanpa Hak Menguasai Narkotika Golongan I Bukan Tanaman? sebagaimana dalam dakwaan tunggal; 2. Menjatuhkan pidana kepada Terdakwa I Kurniawan bin Wasroni dengan pidana penjara selama 5 (Lima) Tahun dan denda sebesar Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan 3. Menjatuhkan pidana kepada Terdakwa II Marsidin bin Yatin selama 4 (Empat) Tahun dan denda sebesar Rp. 800.000.000,- (delapan ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan; 4. Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; 5. Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1) 1 (satu) paket sabu yang di bungkus dengan plastik putih bening dengan berat bersih / Neto 0,13074 gram (nol koma tiga satu nol tujuh empat) yang di simpan di dalam potongan sedotan plastik warna hitam yang di simpan di dalam potongan sedotan plastik warna hitam;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Dedi Apriliyanto Bin Karyono tersebut di atas, terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?tanpa hak menguasai Narkotika Golongan I bukan tanaman? sebagaimana dalam dakwaan tunggal; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (empat) tahun dan 6 (enam) bulan dan denda sejumlah Rp1.000.000.000,- (satu miliar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: Sebuah tas selempang warna biru dongker merk JFR yang berisi 1 (satu) paket Shabu yang dibungkus dengan plastik klip putih bening dengan berat bersih / neto 0,07701 (nol koma nol tujuh tujuh nol satu) gram, yang disimpan di dalam potongan sedotan plastik warna hitam kemudian disimpan didalam bekas kotak permen HAPPYDENT; 1 (satu) paket Shabu yang dibungkus dengan 2 (dua) buah plastik klip putih bening dengan berat bersih / neto 0,28320 (nol koma dua delapan tiga dua nol) gram, kemudian disimpan didalam bekas bungkus rokok merk CLIMAX;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Ivan Septian Fahmi alias Madam Bin Abi Khulaemi tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak dan melawan hukum menjadi perantara dalam jual beli Narkotika Golongan I bukan tanaman yang beratnya melebihi 5 (lima) gram sebagaimana diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 Tentang Narkotika sebagaimana dalam dakwaan primer Penuntut Umum; Menjatuhkan pidana terhadap Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah), apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) plastik klip serbuk kristal seberat 4,89231 gram; 1 (satu) plastik klip serbuk kristal seberat 0,24533 gram; 1 (satu) pak isi plastik ukuran kecil; 1 (satu) buah timbangan digital; 1 (satu) buah isolasi besar warna merah; 1 (satu) buah isolasi besar warna biru; 1 (satu) buah korek gas warna biru; 1 (satu) buah potongan sedotan plastik; 1 (satu) buah pipet kaca; 1 (satu) buah bong / alat hisap dari botol plastic warna bening; 1 (satu) unit Handphone OPPO F9 Max warna biru berikut SIM Card-nya;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Feri Triawan bin Moh. Takbir telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara melawan hukum menguasai narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa Feri Triawan bin Moh. Takbir berupa pidana penjara selama 7(tujuh) tahun dan 6 (enam) bulan dan denda sebesar Rp. 100.000.000,- (seratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga)bulan dikurangkan selama terdakwa berada dalam tahanan dengan perintah agar terdakwa tetap ditahan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) paket shabu dibungkus klip putih bening dengan berat bersih 0,20461 gram 1 (satu) buah alat hisap bong terbuat dari botol kaca Iceland terpasang 2 (dua) sedotan plastik putih dan terpasang pipet kaca berisi shabu dengan berat bersih 0,01880 gram 1 (satu) buah korek api gas warna orange 1 (satu) unit handphone merk Samsung J7 warna hitam dengan nomor IMEI 1 :358796080316988, IMEI 2 : 358797080316986, Nomor Simcard : 0895406098302</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Ratna Sari Als Naura Binti Sukirno tersebut di atas, terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ? tanpa hak memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 4 (Empat ) tahun dan 6 (enam ) bulan dan denda sebesar Rp1.000.000.000,00 (satu miliyar rupiah) dengan ketentuan bahwa jika denda tidak dibayar harus diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi Sabu dengan berat 0,50 gram (ditimbang berikut plastik-nya) berlapis isolasi warna hijau; 1 (satu) buah bong / alat hisap dari botol plastik warna bening bertuliskan PINI CLO Zamzam Water; 1 (satu) buah korek gas warna hijau; 1 (satu) buah pipet kaca;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Agus Sudrajat Bin Suryat telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara melawan hukum menguasai narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa Agus Sudrajat Bin Suryat berupa pidana penjara selama 5 (lima) tahun dan denda sebesar Rp.1.000.000.000 (Satu Milyar Rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan dikurangkan selama terdakwa berada dalam tahanan dengan perintah agar terdakwa tetap ditahan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) plastik klip ukuran sedang berisi Sabu dengan berat 0,22 gram (ditimbang berikut plastik klip-nya); 3 (tiga) plastik klip ukuran kecil berisi Sabu dengan total berat 0,52 gram (ditimbang berikut plastik klip-nya); 1 (satu) buah cangklong (alat hisap Sabu) yang terbuat dari kaca bening; 2 (dua) buah cangklong (alat hisap Sabu) yang terbuat dari kaca bening; 1 (satu) buah alat hisap (bong) yang terbuat dari botol kaca bening; 1 (satu) buah pipet kaca; 1 (satu) pak isi plastik klip ukuran sedang; 1 (satu) pak isi plastik klip ukuran kecil; 3 (tiga) buah potongan sedotan plastik warna putih; 1 (satu) buah korek gas warna ungu; 1 (satu) plastik pembungkus warna hitam bertuliskan SICEPAT Express; 1 (satu) unit Handphone OPPO Reno 4 warna biru berikut SIM Card-nya;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa HARTONO alias TONO Bin PARYANTO telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?MENGUASAI NARKOTIKA GOLONGAN i ? sebagaimana diatur dan diancam pidana dalam Pasal 112 ayat (1) UU Nomor 35 tahun 2009 tentang NARKOTIKA dalam dakwaan KEDUA Penuntut Umum; Menjatuhkan pidana penjara kepada Terdakwa tersebut oleh karena itu selama 5 (lima ) tahun dikurangi selama Terdakwa berada dalam tahanan, dan Denda 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan Memerintahkan agar Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) plastik klip ukuran sedang berisi Sabu dengan berat 0,46 gram (ditimbang berikut plastik klip-nya). 3 (tiga) plastik klip ukuran kecil berisi Sabu dengan total berat 0,53 gram (ditimbang berikut plastik klip-nya). 1 (satu) buah cangklong (alat hisap Sabu) yang terbuat dari kaca bening. 1 (satu) buah alat hisap (bong) yang terbuat dari botol LARUTAN CAP KAKI TIGA. 3 (tiga) buah pipet kaca, 2 (dua) buah potongan sedotan plastik warna putih. 1 (satu) buah korek gas warna biru. 1 (satu) buah korek gas warna kuning. 1 (satu) Gulung selang plastic bening ukuran kecil; 1 (satu) box penyimpanan warna hitam; 1 (satu) unit Handphone Realme C2 warna biru berikut SIM Cardnya,</t>
+  </si>
+  <si>
+    <t>1 (satu) plastik klip berisi Tembakau Gorila dengan berat 8,42 gram (ditimbang berikut plastik-nya); 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 3,80 gram (ditimbang berikut plastik-nya); 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 1,79 gram (ditimbang berikut plastik-nya); 1 (satu) plastik bening berisi Tembakau Gorila dengan berat 1,61 gram (ditimbang berikut plastik-nya); 1 (satu) pak kertas papir merk ELEMENTS; 1 (satu) buah botol semprot warna hijau putih berisi cairan warna agak kecoklatan dengan berat 123,40 gram; 1 (satu) unit Handphone IPHONE 11 warna merah berikut SIM Card-nya Dirampas untuk dimusnahkan Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 8,42 gram (ditimbang berikut plastik-nya); 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 3,80 gram (ditimbang berikut plastik-nya); 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 1,79 gram (ditimbang berikut plastik-nya); 1 (satu) plastik bening berisi Tembakau Gorila dengan berat 1,61 gram (ditimbang berikut plastik-nya); 1 (satu) pak kertas papir merk ELEMENTS; 1 (satu) buah botol semprot warna hijau putih berisi cairan warna agak kecoklatan dengan berat 123,40 gram; 1 (satu) unit Handphone IPHONE 11 warna merah berikut SIM Card-nya Dirampas untuk dimusnahkan</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa I MUHAMMAD HILMI MAHFUZH Bin KRESA BUDIATNO bersama-sama dengan Terdakwa II RUDI HARTONO alias JAYENG Bin ATMO terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Mereka yang melakukan, yang menyuruh melakukan dan turut serta melakukan perbuatan memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I dalam bentuk tanaman? sebagaimana diatur dan diancam pidana dalam Pasal 111 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika Juncto Pasal 55 ayat (1) Ke-1 KUHPidana dalam dakwaan kedua Penuntut Umum; Menjatuhkan pidana penjara kepada Terdakwa I MUHAMMAD HILMI MAHFUZH Bin KRESA BUDIATNO bersama-sama dengan Terdakwa II RUDI HARTONO alias JAYENG Bin ATMO masing masing selama 4 (tahun) dan 6 (enam) bulan dikurangi selama para Terdakwa berada dalam tahanan, dan Denda 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan Memerintahkan agar para Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: Tembakau Gorila dengan berat 2,77 gram yang tersimpan didalam kertas undangan; 1 (satu) linting berisi Tembakau Gorila dengan berat 0,55 gram; 1 (satu) puntung berisi Tembakau Gorila dengan berat 0,11 gram; 1 (satu) pak kertas papir merk ROYO; 1 (satu) unit Handphone IPHONE 11 warna hitam berikut SIM Card-nya; 1 (satu) unit Handphone OPPO A53 warna dark blue berikut SIM Card-nya</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa SUPANDI Bin WAJUD terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Tanpa hak atau melawan hukum menanam dan memiliki narkotika golongan I dalam bentuk tanaman beratnya melebihi 1 (satu) Kilogram atau melebihi 5 (lima) batang pohon? sebagaimana yang diatur dan diancam pidana dalam Pasal 111 ayat (2) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan Alternatif Kedua penuntut umum; Menjatuhkan pidana terhadap Terdakwa SUPANDI Bin WAJUD berupa pidana penjara selama 8 (delapan) tahun dan denda sebesar Rp. 1.000.000.000,- (satu miliyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan terdakwa tetap ditahan; Menetapkan barang bukti berupa: 3 (tiga) linting rokok berisi Ganja dengan berat 0,95 gram (ditimbang berikut kertas papir-nya) yang disimpan didalam bungkus rokok GUDANG GARAN SIGNATURE; 1 (satu) pohon Ganja setinggi 140 cm; 1 (satu) pohon Ganja setinggi 85 cm; 1 (satu) pohon Ganja setinggi 65 cm; 3 (tiga) pohon Ganja setinggi masing-masing 3 cm; 1 (satu) pohon Ganja setinggi 5 cm; 1 (satu) pohon Ganja setinggi 4 cm; 1 (satu) pohon Ganja setinggi 1,5 cm; 2 (dua) plastik bening berisi Ganja dengan total berat 6,46 gram (ditimbang berikut plastik-nya) yang disimpan didalam bungkus rokok GUDANG GARAN SIGNATURE; Irisan daun Ganja dengan berat 78,95 gram yang terbungkus kertas putih; Irisan daun Ganja dengan berat 30,72 gram yang terbungkus kertas putih; Potongan batang Ganja dengan berat 4,27 gram; 1 (satu) plastik bening berisi biji Ganja dengan 3,00 gram (ditimbang berikut plastik-nya); 9 (sembilan) puntung rokok berisi Ganja dengan total berat 0,73 gram (ditimbang berikut kertas papir-nya); Biji Ganja dengan berat 0,57 gram yang tersimpan didalam kotak korek THREE DURIANS; 1 (satu) pak kertas papir merk MARS BRAND; 1 (satu) unit Handphone merk SAMSUNG A70 warna blue ocean berikut Sim Card-nya</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Syaefudin Lubis alias Cecep Bin Muhamad Busro tersebut di atas telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum memiliki, menguasai atau menyediakan Narkotika Golongan I dalam bentuk tanaman dan Bukan Tanaman; Menjatuhkan pidana kepada Terdakwa Syaefudin Lubis alias Cecep Bin Muhamad Busro oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan denda sebesar Rp800.000.000,00 (delapan ratus juta Rupiah) dengan ketentuan apabila tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 4 (empat) plastik klip berisi Sabu dengan total berat 0,85 gram (ditimbang berikut plastik-nya); 1 (satu) paket berisi Ganja dengan berat 335 gram (ditimbang berikut kertas pembungkus-nya) yang terbungkus kertas minyak warna coklat dan lakban coklat didalam plastik warna putih; 1 (satu) buah box penyimpanan warna merah; 1 (satu) unit Handphone OPPO A5s warna biru berikut SIM Card-nya;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa RAFI SUHADI Als RAFA Als KUPING Bin (alm ) AHMAD SAUD telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Percobaan atau permufakatan jahat untuk melakukan tindak pidana Narkotika dan prekusor narkotika tanpa hak atau melawan hukum menawarkan untuk menjadi perantara dalam jual beli, menukar atau menyerahkan narkotika golongan I yang dalam bentuk tanaman beratnya melebihi 1 (satu) kilogram atau melebihi 5 (lima) batang pohon? sebagaimana yang diatur dan diancam pidana dalam Pasal 132 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika Jo Pasal 114 ayat (2) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan Primair penuntut umum; Menjatuhkan pidana penjara kepada Terdakwa tersebut diatas oleh karena itu selama 8 (delapan) tahun dan 6 (enam) bulan dan Denda 1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan Memerintahkan agar Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) buah KTP atasnama Rafi Suhadi dengan NIK 3375012011790008 Dikembalikan kepada Terdakwa 1 (satu) unit Handphone merk OPPO Warna Biru tua dengan Nomor SIM Card 0882006869045 dan dengan nomor imai 1 867756053218433, imei 2 8677560532184251.</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Rizal Ardiyanto Alias Boncel Bin Sunarto dan Terdakwa Arifin Alias Daripin Bin Cipto tersebut di atas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Turut Serta Tanpa Hak Menguasai Narkotika Golongan I Bukan Tanaman sebagaimana dalam dakwaan Alternatif Kedua; Menjatuhkan pidana kepada Para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 4 (empat) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Para Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 6 (enam) plastik klip berisi Sabu dengan total berat 1,75 gram (ditimbang berikut plastik-nya) yang dikemas dalam potongan bungkus snack didalam bungkus permen HEXOS 1 (satu) buah korek gas warna bening 1 (satu) bungkus plastik klip berisi plastik klip ukuran kecil 1 (satu) buah bong (alat hisap) dari plastik warna bening 1 (satu) unit Handphone INFINIX Note 10 warna dark blue berikut SIM Card-nya 1 (satu) buah kartu ATM Bank BCA atas nama MUHAMMAD FARCHAT 1 (satu) unit Handphone INFINIX Hot 10 warna hijau tosca berikut SIM Card-nya</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Nata Suharta Bin Suroso telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan alternatif Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa Nata Suharta Bin Suroso berupa pidana penjara selama 4 (empat) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan, dikurangkan selama terdakwa berada dalam tahanan dengan perintah agar terdakwa tetap ditahan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 7 (tujuh) plastik klip berisi Sabu dengan total berat 0,99 gram (ditimbang berikut plastik-nya); 6 (enam) butir tablet dalam kemasan silver bertuliskan AM ORIGINAL ASLI; 3 (tiga) buah cangklong (alat hisap sabu); 2 (dua) buah pipet kaca; 1 (satu) buah korek gas warna merah; 1 (satu) buah plastik pembungkus warna hitam bertuliskan J&amp;T Express; 1 (satu) unit Handphone VIVO 1819 warna biru berikut SIM Card-nya;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa RIZKI NABILA DIFA alias Dipa binti MUH. KHASANI tersebut diatas, terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Turut serta tanpa hak dan melawan hukum menguasai Narkotika golongan I sebagaimana diatur dalam dakwaan alternatif kedua; Menjatuhkan pidana terhadap Terdakwa berupa pidana penjara selama 4 (empat) tahun dan 6 (enam) bulan penjara dikurangi selama Terdakwa berada dalam tahanan dengan perintah agar Terdakwa tetap ditahan; Menjatuhkan denda sejumlah Rp1.000.000.000 (satu milyar rupiah) apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan; Menetapkan barang bukti berupa: 1 (satu) unit Handphone SAMSUNG S5 warna putih berikut SIM Card, dirampas untuk dimusnahkan</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Tri Budiarto Alias Kimos Bin Mochamad Chusni terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana Tanpa Hak dan Melawan Hukum melakukan persengkokolan menguasai Narkotika Golongan I bukan tanaman dan tindak pidana menguasai Psikotropika sebagaimana diatur dalam dakwaan Alternatif kedua dan Kumulatif kedua; Menjatuhkan pidana terhadap Terdakwa berupa pidana penjara selama 6 (enam) tahun; Menjatuhkandenda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) apabila denda tersebut tidak dibayar maka diganti dengan pidana penjara selama 1(satu) bulan; Memerintahkan masa penangkapan dan penahanan dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap berada dalam tahanan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi Sabu dengan berat 0,27 gram (ditimbang berikut plastik-nya) terbungkus plastik warna merah muda 1 (satu) plastik klip berisi Sabu dengan berat 0,34 gram (ditimbang berikut plastik-nya) 2 (dua) tablet dalam kemasan warna silver bertulisan Alprazolam 1 (satu) buah alat hisap/bong yang terbuat dari botol plastik warna bening 1 (satu) buah alat hisap/bong yang terbuat dari botol kaca warna bening 3 (tiga) pak isi plastik klip 1 (satu) buah korek gas warna ungu 2 (dua) buah timbangan digital 2 (dua) buah selang plastik kecil 2 (dua) buah potongan sedotan plastik warna putih 1 (satu) unit Handphone OPPO A83 warna rose gold berikut SIM Card-nya</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa MOH MUNAJI bin TARSONO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum, menawarkan untuk dijual, menjual, membeli, menerima, menjadi perantara dalam jual beli, menukar, atau menyerahkan Narkotika golongan I dalam bentuk bukan tanaman yang beratnya melebihi 5 (lima) gram? dalam Prmair Penuntut Umm; Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 8 (delapan) tahun dan denda sejumlah Rp.1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) bulan; Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) paket sabu dalam bungkus plastik klip bening dibungkus lagi dengan potongan plastik keresek warna hitam. 1 (satu) buah HP merk OPPO A15 warna hitam dengan nomor simcard 087715123937. 1 (satu) buah timbangan digital warna hitam. 2 (dua) pak plastik klip bening. 1 (satu) buah alat hisap. 1 (satu) buah pipet kaca. 1 (satu) buah suru yang terbuat dari sedotan plastik. 1 (satu) buah kantong kain warna hitam. 17 (tujuh belas) paket sabu masing-masing dalam bungkus plastic klip bening. 1 (satu) buah toples plastic warna biru. 1 (satu) buah tube plastic berisi urine.</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa KAMALI Bin H. SALEH telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ? tanpa hak atau melawan hukum memiliki, menyimpan, menguasai atau menyediakan narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam Dakwaan Kedua Penuntut Umum; Menjatuhkan pidana kepada Terdakwa KAMALI Bin H. SALEH tersebut oleh karena itu dengan pidana penjara selama :4(empat tahun, 6 (enam) bulan dan denda sejumlah Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama :1(satu) tahun . Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan; Menetapkan Terdakwa tetap ditahan; Menetapkan barang bukti berupa: 1 (satu) plastik klip berisi Sabu dengan berat 0,37 gram (ditimbang berikut plastik klip-nya) berlapis tissue warna putih dan terbungkus hansaplast warna coklat. 1 (satu) buah bungkus permen WOODS warna kuning biru; 1 (satu) unit Handphone REALME C51 warna hitam, No. Imei 1 : 868534066776195/72, No. Imei 2 : 868534066776187/72 berikut SIM Card-nya;</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa I. SODIKIN Als. KUCING Bin. SEIN dan terdakwa II. DIDING KOMARUDIN Bin. DARYANI tidak terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana sebagaimana dalam dakwaan alternatif Kesatu
+2. Membebaskan Para Terdakwa dari dakwaan alternatif kesatu tersebut;
+3. Menyatakan Terdakwa I. SODIKIN Als. KUCING Bin. SEIN dan terdakwa II. DIDING KOMARUDIN Bin. DARYANI terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Secara Bersama-sama Tanpa izin dan Melawan Hukum Memiliki Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika Jo pasal 55 ayat(1) ke 1 KUHP sebagaimana dalam dakwaan alternatif kedua;
+4. Menjatuhkan pidana kepada para Terdakwa oleh karena itu dengan pidana penjara masing-masing selama 5 (lima) Tahun dan Denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara masing-masing selama 3 (tiga) Bulan;
+5. Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Para Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+6. Menetapkan agar Para Terdakwa tetap ditahan; 1 (satu) plastik klip serbuk kristal sabu seberat 0,37744 gram;
+- 1 (satu) buah pipet kaca;
+- 1 (satu) unit HP VIVO Y91C warna merah dengan nomor Imei I : 868905043312116 dan nomor Imei II : 868905043312108 berikut Simcardnya;
+- 1 (satu) unit HP XIAOMI redme A1 warna hitam dengan nomor Imei I : 866681062051826 dan nomor Imei II : 866681062501834 berikut Simcardnya;
+Dirampas untuk dimusnahkan.
+ 1 (satu) unit sepeda motor HONDA BEAT warna merah putih tahun 2014 dengan Nopol terpasang : G-3022-EN, Noka MH1JFN114EK039641, Nosin : JFN1E-1049219 berikut kunci kontaknya.</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Agus Santoso alias Gondrong Bin Fudoli terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana menjual Narkotika Golongan I dalam bentuk bukan tanaman beratnya 5 ( lima ) gram sebagaimana diatur dan diancam pidana dalam Pasal 114 Ayat (2) Undang-Undang Republik Indonesia No.35 Tahun 2009 Tentang Narkotika sebagaimana dalam Dakwaan alternatif kesatu Penuntut Umum;
+Menjatuhkan pidana kepada Terdakwa Agus Santoso alias Gondrong Bin Fudoli oleh karena itu dengan pidana penjara selama 9 (sembilan) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan ;
+Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan; 2 (dua) plastic klip sabu sabu dengan total berat 0,49 gram (ditimbang berikut plastic klipnya)
+1 (satu) plastic klip berisi 8 (delapan) plastic klip berisi sabu sabu dengan total berat 2, 26 gram (di timbang berikut plastic klipnya ) masing masing berlapis isolasi bening.
+10 (sepuluh) plastic klip berisi sabu dengan total berat 5,53 gram (di timbang berikut plastic klipnya ) masing masing berlapis isolasi bening dan terbungkus wara merah bertuliskan FRAGILE
+11 (sebelas) plastic klip sabu sabu dengan total berat seberat 4, 40 gram (di timbang berikut klipnya masing masing berlapis isolasi bening dan terbungkus warna merah bertuliskan FRAGILE.
+1 (satu) plastic klip berisi sabu dengan berat 5,01 gram (di timbang berikut plastic klipnya)
+1 (satu) bungkus rokok DUNHILL warna putih
+1 (satu) kotak cotton bud merk SELECTION warna merah berlapis isolasi warna merah bertuliskan FRAGILE
+1 (satu) buah gunting warna orange dan hijau
+3 (tiga) pak isi plastik klip ukuran kecil
+1 (satu) buah lakban besar warna hitam
+1 (satu) buah isolasi besar warna bening
+1 (satu) buah isolasi warna merah bertuliskan FRAGILE
+1 (satu) buah digital warna hitam bertuliskan POCKET SCALA
+1 (satu) buah kartu ATM Bank BCA warna gold denga no kartu : 5307 9521 1328 8352
+1 (satu) buah bong (hisap) yang terbuat dari botol plastic Le Minerale
+1 (satu) handphone VIVO Y 16 warna stellar black dengan No .Imel 1: 860033066808593, No.Imei 2 :8600330668585 berikut SIM Card nya .</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa IVAN FALERIAN alias KAMPLENG Bin ERWIN IRAWAN terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum, menjual, membeli, menjadi perantara 12 (dua belas) plastik klip berisi Sabu dengan total berat 3,12 gram (ditimbang berikut plastik klip-nya) terbungkus sedotan warna biru;
+4 (empat) plastik klip berisi Sabu dengan total berat 1,65 gram (ditimbang berikut plastik klip-nya) terungkus sedotan warna hitam;
+1 (satu) plastik klip berisi Sabu dengan berat 3,88 gram (ditimbang berikut plastik klip-nya);
+3 (tiga) buah pipet kaca yang masih ada sisa Sabu dengan total berat 5,46 gr (ditimbang berikut pipet kaca-nya);
+1 (satu) plastik klip berisi 5 (lima setengah) butir Ekstasi atau obat Inex warna Biru dengan berat 2,76 gram (ditimbang berikut plastik klip-nya);
+1 (satu) plastik klip berisi serbuk Ekstasi atau serbuk Inex warna pink dengan berat 0,42 gram (ditimbang berikut plastik klip-nya);
+1 (satu) butir obat dalam kemasan warna silver bertuliskan RIKLONA2 CLONAZEPAM Tablet Salut Selaput 2 mg;
+7 (dua) buah plastik klip ukuran kecil;
+1 (satu) buah botol bertuliskan HAPPYDENT;
+1 (satu) buah botol bertuliskan XYLITOL;
+2 (dua) buah korek gas;
+10 (sepuluh) buah sedotan plastik warna hitam;
+10 (sepuluh) buah sedotan plastik warna biru;
+1 (satu) buah bong (alat hisap) yang terbuat dari botol plastik bertuliskan PERFECT;
+1 (satu) buah timbangan digital warna hitam;
+1 (satu) unit Handphone IPHONE 12 Pro warna dark blue, No Imei 1 : 354049349846195, No. Imei 2 : 35404934984083 berikut SIM Card-nya;
+1 (satu) unit Handphone REALME 5 Pro warna hitam, No. Imei 1 : 869435046105951, No. Imei 2 : 869435046105944 berikut SIM Card-nya; dalam jual beli narkotika golongan I bukan tanaman melebihi 5 Lima) gram dan menyimpan atau membawa psikotropika? sebagaimana diatur dan diancam pidana sebagaimana dalam Dakwaan Komulatif;
+Menjatuhkan Pidana terhadap Terdakwa IVAN FALERIAN alias KAMPLENG Bin ERWIN IRAWAN oleh karena itu dengan Pidana penjara selama 5 (lima) Tahun;
+Menghukum Terdakwa IVAN FALERIAN alias KAMPLENG Bin ERWIN IRAWAN untuk membayar denda sebesar Rp. 1.400.000.000,- (satu milyar emapt ratus juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayarkan, maka akan di ganti pidana kurungan selama 3 (tiga) Bulan penjara;
+Menetapkan lamanya masa penangkapan dan penahanan sementara yang telah dijalani oleh Terdakwa dikurangkan seluruhnya dari Pidana yang dijatuhkan ;
+Menetapkan agar Terdakwa tetap berada dalam tahanan ;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa ALFIN SOPIAN SAPUTRO Bin DORI terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum mengedarkan dan memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika dalam dakwaan alternatif pertama;
+Menjatuhkan pidana kepada Terdakwa ALFIN SOPIAN SAPUTRO Bin DORI oleh karena itu dengan pidana penjara selama 6 (enam) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 2 (dua) Bulan ;
+Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan; 1 (satu) plastik klip berisi Tembakau Gorila dengan berat 8,24 gram (ditimbang berikut plastik klip-nya) berlapis isolasi besar warna coklat;
+1 (satu) buah puntung rokok berisi Tembakau Gorila dengan berat 0,19 gram (ditimbang berikut kertas papir-nya);
+15 (lima) belas plastik klip berisi Tembakau Gorila dengan total berat 26,85 gram (ditimbang berikut plastik klip-nya) didalam kantong kain warna coklat bertuliskan UGREEN;
+12 (dua) belas plastik klip berisi Tembakau Gorila dengan total berat 47,26 gram (ditimbang berikut plastik klip-nya);
+1 (satu) plastik klip berisi Tembakau Gorila dengan berat 4,79 gram (ditimbang berikut plastik klip-nya) terbungkus isolasi warna merah bertuliskan FRAGILE;
+1 (satu) buah box plastik warna bening berisi Tembakau Gorila dengan berat 31,48 gram (ditimbang berikut box plastik-nya);
+1 (satu) buah toples plastik warna bening berisi Tembakau Gorila dengan berat 105,48 gram (ditimbang berikut toples plastik-nya);
+1 (satu) unit Handphone IPHONE 13 warna black, No. Imei 1 : 355525237413577, No. Imei 2 : 355525237487480 berikut SIM Card-nya;
+2 (dua) pak kertas papir merk BUFFALO BILL;
+3 (tiga) pak plastik klip ukuran kecil;
+3 (tiga) pak plastik klip ukuran sedang;
+1 (satu) buah bungkus rokok ESSE PUNCH POP warna orange;
+1 (satu) buah isolasi besar warna coklat;
+1 (satu) buah isolasi besar warna merah bertuliskan FRAGILE;
+1 (satu) buah lakban hitam;
+1 (satu) buah timbangan digital warna silver terbungkus kantong kain;
+1 (satu) buah timbangan digital warna putih merk SAMONO;
+1 (satu) buah MAGNETIC STIRRER warna putih;
+1 (satu) buah magnet warna putih;
+1 (satu) buah gelas ukur kaca warna bening;
+1 (satu) buah corong plastik warna merah;
+1 (satu) buah botol kaca berisi Alkohol 90 %;
+2 (dua) buah botol kaca warna coklat ukuran 100 ml;
+1 (satu) buah botol kaca warna coklat ukuran 50 ml;
+1 (satu) buah plastik bening;
+1 (satu) buah kartu ATM Bank BCA dengan Nomor Kartu : 5379-4130-4229-1178</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa Sutarno Alias Nano Bin Markonah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana menjadi Perantara jualbeli Narkotika Golongan I jenis sabu? sebagaimana diatur dan 1 (satu) plastik klip berisi Sabu dengan berat 0,33 gram (ditimbang berikut plastik klip-nya) terbungkus plastik warna merah;
+1 (satu) plastik klip berisi Sabu dengan berat 0,44 gram (ditimbang berikut plastik klip-nya) terbungkus tissue dengan lakban warna merah;
+1 (satu) plastik klip berisi Sabu dengan berat 0,19 gram (ditimbang berikut plastik klip-nya);
+1 (satu) buah alat hisap Sabu / bong yang terbuat dari botol plastik warna putih;
+1 (satu) pak isi plastik klip kecil;
+1 (satu) buah timbangan digital warna hitam;
+1 (satu) buah dompet warna coklat;
+1 (satu) unit Handphone TECHNO SPARK Go 1 warna grey dengan No. Imei 1 : 356855271081405, No. Imei 2 : 356855271081413 berikut Sim Card- nya; diancam pidana dalam Pasal 114 Ayat (1) Undang-Undang Republik Indonesia No.35 Tahun 2009 Tentang Narkotika sebagaimana dalam Dakwaan alternatif kesatu Penuntut Umum
+2. Menjatuhkan pidana kepada Terdakwa Sutarno Alias Nano Bin Markonah Supriyanto oleh karena itu dengan pidana penjara selama 7 (Tujuh) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan ;
+3. Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+4. Menetapkan agar Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
     <t>1. Menyatakan Terdakwa MAULANA ANADHOFAH NAZZUN Alias LANA Bin SAEFUROHIM telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana tanpa hak atau melawan hukum, menjual, membeli, narkotika golongan I dalam bentuk bukan tanaman yang beratnya melebihi 5 gram, sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (2) Undang-Undang Republik Indonesia Nomor 35 tahun 2009 tentang Narkotika Dakwaan Komulatif Alternatif Pertama dan tindak pidana secara tanpa hak, memiliki, psikotropika sebagaimana yang diatur dan diancam pidana dalam Pasal 62 Undang-Undang Republik Indonesia Nomor 5 Tahun 1997 tentang Psikotropika Dakwaan Komulatif Kedua Penuntut Umum;
 2. Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana kurungan / penjara selama 1 (satu) tahun;
 3. Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
-4. Menetapkan Terdakwa tetap ditahan;</t>
+4. Menetapkan Terdakwa tetap ditahan; 1 (satu) plastik klip berisi Sabu dengan berat 0,27 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih didalam bungkus permen KISS warna ungu berlapis isolasi double tape warna hijau;
+- 7 (tujuh) plastik klip berisi Sabu dengan total berat 1,95 gram (ditimbang berikut plastik klip-nya);
+- 1 (satu) plastik klip berisi Sabu dengan berat 0,42 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih didalam bungkus permen KOPIKO berlapis isolasi double tape warna hijau;
+- 14 (empat belas) plastik klip berisi Sabu dengan total berat 3,60 gram (ditimbang berikut plastik klip-nya);
+- 2 (dua) plastik klip berisi Sabu dengan total berat 0,50 gram (ditimbang berikut plastik klip-nya) masing-masing terbungkus tissue warna putih didalam bungkus permen KISS warna merah berlapis isolasi double tape warna hijau;
+- 1 (satu) plastik klip besar berisi Sabu dengan berat 0,99 gram (ditimbang berikut plastik klip-nya);
+- 2 (dua) plastik klip berisi Sabu dengan total berat 1,27 gram (ditimbang berikut plastik klip-nya) masing-masing terbungkus tissue warna putih didalam bungkus permen MENTOS warna warna biru dan merah muda berlapis isolasi double tape warna hijau;
+- 1 (satu) plastik klip berisi Sabu dengan berat 0,24 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih didalam bungkus permen KISS warna merah berlapis isolasi double tape warna hijau;
+- 1 (satu) plastik klip berisi Sabu dengan berat 0,46 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih didalam bungkus permen MENTOS warna biru berlapis isolasi double tape warna hijau;
+- 1 (satu) plastik klip berisi Sabu dengan berat 0,44 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih didalam bungkus permen KOPIKO berlapis isolasi double tape warna hijau;
+- 1 (satu) unit Handphone TECNO KL7 warna grey, No. Imei 1 : 357643380009502, No. Imei 2 : 357643380009510 berikut SIM Card-nya.
+- 2 (dua) butir obat dalam kemasan warna silver bertuliskan ALPRAZOLAM Tablet 1 mg;
+- 2 (dua) buah plastik klip ukuran panjang;
+- 1 (satu) pak plastik klip ukuran sedang;
+- 1 (satu) buah bungkus rokok TWIZZ warna ungu;
+- 2 (dua) buah isolasi besar warna merah bertuliskan FRAGILE;
+- 1 (satu) buah isolasi double tape warna hijau;
+- 3 (tiga) buah sedotan plastik warna putih;
+- 1 (satu) pak tissue;
+- 1 (satu) buah gunting;
+- 1 (satu) buah pipet kaca;
+- 1 (satu) buah korek gas warna orange;
+- 1 (satu) buah bong (alat hisap) yang terbuat dari botol plastik LE MINERALE;
+- 1 (satu) buah mesin press plastik;
+- 1 (satu) buah kartu ATM Tabungan Xpresi BCA dengan Nomor Kartu : 6019-0050-5933-7423;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Budi Setiawan Bin Tahril terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum Turut Serta memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika jo pasal 55 ayat (1) ke 1 KUHP dalam dakwaan kesatu;
+Menjatuhkan pidana kepada Terdakwa Budi Setiawan Bin Tahril oleh karena itu dengan pidana penjara selama 10 (sepuluh) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) Tahun;
+Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan; 28 (dua puluh delapan) plastik klip berisi Tembakau Gorila dengan total berat 28,35 gram (ditimbang berikut plastik klip-nya) berlapis isolasi warna merah bertuliskan FRAGILE;
+3 (tiga) plastik klip berisi Tembakau Gorila dengan total berat 40,56 gram (ditimbang berikut plastik klip-nya) berlapis isolasi warna merah;
+1 (satu) plastik klip berisi Tembakau Gorila dengan berat 85,69 gram (ditimbang berikut plastik klip-nya);
+1 (satu) plastik berwarna silver berisi Tembakau Gorila dengan berat 4,54 gram (ditimbang berikut plastik-nya);
+1 (satu) plastik berwarna orange berisi Tembakau Gorila dengan berat 5,15 gram (ditimbang berikut plastik-nya);
+1 (satu) buah timbangan digital warna hitam bertuliskan HINOMARU;
+1 (satu) buah lakban warna merah bertuliskan FRAGILE;
+2 (dua) pak kertas papir;
+1 (satu) pak kertas papir bungkus merah;
+1 (satu) bungkus besar berisikan beberapa plastik klip;
+1 (satu) tas selempang berwarna hitam;
+1 (satu) plastik berwarna hitam;
+1 (satu) dus berwarna coklat;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Reno Aji Saputra Bin Nanang Supriyanto terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?secara Tanpa Hak dan Melawan Hukum menyuruh melakukan perbuatan 25 (dua puluh lima) plastik klip berisi Tembakau Gorila dengan total berat 66,97 gram (ditimbang berikut plastik klip-nya) berlapis isolasi warna merah, isolasi warna merah bertuliskan FRAGILE dan berlapis lakban warna hitam;
+1 (satu) buah kartu ATM Bank BCA dengan Nomor Kartu : 5379-4121- 1134-6572.
+1 (satu) unit Handphone INFINIX NOTE 40 Pro warna obsidian black, No. Imei 1 : 351272391197480, No. Imei 2 : 351272391197498 berikut SIMCard-nya; mengedarkan dan memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika jo pasal 55 ayat (1) ke 1 KUHP dalam dakwaan alternatif pertama;
+Menjatuhkan pidana kepada Terdakwa Reno Aji Saputra Bin Nanang Supriyanto oleh karena itu dengan pidana penjara selama 6 (enam) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (Enam) Bulan ;
+Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Dimyati Yusuf Alias Ucup Bin Faizin tidak terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana sebagaimana dalam dakwaan alternatif kesatu; 1 (satu) plastik klip berisi Tembakau Gorila yang mengandung narkotika dengan berat 5,09 gram (ditimbang berikut plastik klip-nya) terbungkus tissue warna putih berlapis isolasi coklat;
+1 (satu) unit Handphone Samsung M15 5G warna Dark Blue dengan No. Imei 1 : 350716260818601, No. Imei 2 : 353291620818607 berikut Sim Card.
+Membebaskan Terdakwa dari dakwaan alternatif kesatu tersebut;
+Menyatakan Terdakwa Dimyati Yusuf Alias Ucup Bin Faizinterbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Tanpa izin dan Melawan Hukum Menyimpan dan menguasii Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dalam dakwaan alternatif kedua;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 6 (enam) Tahun dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 3 (tiga) Bulan;
+Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Jaka Saputra Bin Wasro terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?Tanpa izin dan Melawan Hukum memperjualbelikan Narkotika Golongan I? sebagaimana yang diatur dan diancam pidana dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dalam dakwaan alternatif pertama;
+Menjatuhkan pidana kepada Terdakwa oleh karena itu dengan pidana penjara selama 5 (lima) Tahun dan 6 (enam) bulan dan Denda sejumlah Rp.1.000.000.000 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam) Bulan;
+Menetapkan lamanya masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan agar Terdakwa tetap ditahan; 6 (enam) linting rokok berisi Tembakau Gorila dengan total berat 1,97 gram (ditimbang berikut kertas papir-nya);
+1 (satu) plastik klip berisi Tembakau Gorila dengan berat 0,61 gram (ditimbang berikut plastik klip-nya);
+2 (dua) plastik klip berisi Tembakau Gorila dengan total berat 1,88 gram (ditimbang berikut plastik klip-nya) berlapis isolasi warna merah bertuliskan FRAGILE;
+4 (empat) plastik klip berisi Tembakau Gorila dengan total berat 7,02 gram (ditimbang berikut plastik klip-nya) berlapis tissue warna putih;
+1 (satu) butir obat tanpa identitas warna putih berlogo ?Y?;
+1 (satu) bungkus rokok GUDANG GARAM SURYA;
+1 (satu) bungkus rokok GUDANG GARAM SIGNATURE;
+1 (satu) unit Handphone OPPO A96 warna putih dengan No. Imei 1 : 867583054440133, No. Imei 2 : 867583054440125 berikut SIM Card-nya;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa ALFIN SOPIAN SAPUTRO bin DORI, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara tanpa hak menyalurkan psikotropika selain pabrik obat, pedagang besar 11 (sebelas setengah) butir obat dalam kemasan warna silver bertuliskan CLONAZEPAM Tablet Salut Selaput 2 mg
+1 (satu) unit handphone REALME C53 warna hitam dengan No. Imei 1 : 864319060101374, No. Imei 2 : 864319060101366 berikut sim card-nya. farmasi, dan sarana penyimpanan sediaan farmasi pemerintah? dalam dakwaan tunggal
+Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 1 (satu) tahun dan 3 (tiga) bulan dengan dan denda sejumlah Rp5.000.000,00 (lima juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa FAIZAL bin HENDRO WIRATMO, telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?secara tanpa hak menyalurkan psikotropika selain pabrik obat, pedagang besar farmasi, 11 (sebelas setengah) butir obat dalam kemasan warna silver bertuliskan CLONAZEPAM Tablet Salut Selaput 2 mg;
+1 (satu) unit handphone REALME C53 warna hitam dengan No. Imei 1 : 864319060101374, No. Imei 2 : 864319060101366 berikut sim card-nya;
+Dipergunakan dalam perkara lain atas nama terdakwa ALFIN SOPIAN SAPUTRO bin DORI; dan sarana penyimpanan sediaan farmasi pemerintah? dalam dakwaan tunggal;
+Menjatuhkan pidana kepada Terdakwa tersebut oleh karena itu dengan pidana penjara selama 1 (satu) tahun dan 6 (enam) bulan dengan dan denda sejumlah Rp.10.000.000,00 (sepuluh juta rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) bulan;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa TIRTO AGUNG TRI CAHYONO Alias LALA Bin SAHROWI telah terbukti secara sah dan menyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki, menyimpan, 2 (dua) plastik klip berisi Sabu dengan total berat 4,85 gram (ditimbang berikut plastik klip-nya) berlapis plastik warna hitam;
+1 (satu) bungkus rokok MAGNUM FILTER warna hitam;
+1 (satu) unit Handphone OPPO A37 warna hitam dengan No. Imei 1: 865642037498493, No. Imei 2: 865642037498485 berikut SIM Card-nya narkotika golongan I bukan tanaman? sebagaimana yang diatur dan diancam pidana dalam Pasal 112 ayat (1) Undang-Undang Republik Indonesia Nomor 35 Tahun 2009 tentang Narkotika sebagaimana dakwaan Kedua penuntut umum;
+Menjatuhkan pidana terhadap Terdakwa TIRTO AGUNG TRI CAHYONO Alias LALA Bin SAHROWI tersebut oleh karena itu dengan pidana penjara selama 10 (sepuluh) tahun dan denda sejumlah Rp. 1.000.000.000,- (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 2 (dua) bulan.
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap ditahan;</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa Mohamad Fahmi Bin Fauzi telah terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana ?tanpa hak atau melawan hukum memiliki, menyimpan, narkotika golongan I bukan  1 (satu) plastik klip berisi Sabu dengan berat 0,26 gram (ditimbang berikut plastik klip-nya) berlapis plastik warna putih hijau;
+- 1 (satu) puntung rokok berisi Tembakau Gorila dengan berat 0,32 gram (ditimbang berikut kertar papir-nya);
+- 4 (empat) butir obat dalam kemasan warna silver bertuliskan CLONAZEPAM Tablet salut selaput 2 mg berlapis isolasi warna bening;
+- 2 (dua) butir obat dalam kemasan warna silver bertuliskan ALPRAZOLAM Tablet 0,5 mg;
+- 1 (satu) butir obat dalam kemasan warna silver bertuliskan CLONAZEPAM Tablet salut selaput 2 mg;
+- 5 (lima) butir obat dalam kemasan warna silver bertuliskan CLOZAPINE 25 Tablet 25 mg;
+- 4 (empat) butir obat warna kuning bertuliskan ?mf?;
+- 3 (tiga) butir obat dalam kemasan warna silver;
+- 1 (satu) buah alat hisap / bong yang terbuat dari botol kaca plastik warna bening;
+- 2 (dua) buah potongan pipet kaca warna bening;
+- 1 (satu) buah korek gas warna kuning;
+- 1 (satu) buah Handphone VIVO Y71 warna hitam tanaman? sebagaimana diatur dan diancam pidana dalam Pasal 112 ayat (1) UU Nomor 35 tahun 2009 tentang narkotika dalam dakwaan alternative Kedua Penuntut Umum; 2. Menjatuhkan pidana penjara kepada Terdakwa Mohamad Fahmi Bin Fauzi tersebut oleh karena itu dengan pidana penjara selama 5 (lima) tahun dikurangi selama Terdakwa berada dalam tahanan, dan Denda sebesar Rp1.000.000.000,00 (satu milyar rupiah) dengan ketentuan apabila denda tersebut tidak dibayar diganti dengan pidana penjara selama 6 (enam</t>
+  </si>
+  <si>
+    <t>Menyatakan Terdakwa Agusman Alias Agus Bin Hamzah terbukti secara sah dan meyakinkan menurut hukum bersalah melakukan tindak pidana tanpa hak atau melawan hukum memiliki, menyimpan, menguasai, atau menyediakan Narkotika Golongan I (satu) bukan tanaman yang beratnya melebihi 5 gram sebagaimana yang diatur dalam Pasal 114 ayat (1) Undang-Undang Republik Indonesia Nomor 35 tahun 2009 tentang Narkotika tentang Narkotika sebagaimana dakwaan alternatif Pertama;
+Menjatuhkan pidana kepada Terdakwa Agusman Alias Agus Bin Hamzah oleh karena itu dengan pidana penjara selama 10 (sepuluh) Tahun dan denda sebesar Rp.1.000.000.000,00 (satu miliar rupiah) dengan ketentuan apabila pidana denda tersebut tidak dibayar diganti dengan pidana penjara selama 1 (satu) tahun;
+Menetapkan masa penangkapan dan penahanan yang telah dijalani Terdakwa dikurangkan seluruhnya dari pidana yang dijatuhkan;
+Menetapkan Terdakwa tetap berada dalam tahanan; plastik klip-nya) berlapis kerta aluminium foil warna merah dan silver berlapis lakban hitam dan isolasi double tip;
+(tujuh) plastik klip berisi Sabu dengan total berat 3,21 gram (ditimbang berikut plastik klip-nya) berlapis kerta aluminium foil warna merah berlapis isolasi warna merah bertuliskan FRAGILE dan isolasi double tip terbungkus plastik bening;
+1 (satu) plastik klip berisi Sabu dengan berat 0,56 gram (ditimbang berikut plastik klip-nya) berlapis kertas aluminium foil warna merah dan isolasi double tip;
+1 (satu) plastik klip berisi sabu dengan berat 0,32 gram (ditimbang berikut plastik klip-nya)
+1 (satu) buah bungkus rokok MARLBORO warna merah hitam;
+1 (satu) buah tas warna hitam bertuliskan HIGHMORE;
+1 (satu) pak isi plastik klip ukuran kecil;
+1 (satu) pak isi plastik klip ukuran sedang;
+2 (dua) buah korek gas warna merah dan hijau;
+2 (dua) buah cangklong kaca warna bening;
+1 (satu) buah toples plastik warna bening berlapis isolasi warna merah bertuliskan FRAGILE
+1 (satu) buah isolasi double tip,
+1 (satu) buah isolasi warna merah bertuliskan FRAGILE,
+1 (satu) buah lakban warna hitam;
+1 (satu) buah box tool warna hitam;
+1 (satu) buah alat hisap/bong terbuat dari botol minuman plastik MOGU-MOGU;
+1 (satu) buah timbangan digital warna silver bertuliskan ACIS;
+1 (satu) buah timbangan digital warna hitam bertuliskan HWH POCKET SCALE;
+1 (satu) buah Handphone INFINIX Hot 40i warna horison gold dengan No. IMEI 1: 353870348247163, No. Imei 2: 353870348247171;
+1 (satu) buah Handphone VIVO Y21 warna diamond glow dengan No. IMEI 1: 868093053154551, No. Imei 2: 868093053154544;</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1034,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1006,21 +1057,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,21 +1396,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1359,854 +1426,854 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="193.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="216.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>83</v>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>77</v>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>71</v>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>85</v>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>87</v>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>89</v>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>93</v>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>91</v>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>95</v>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="303" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>97</v>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>99</v>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>101</v>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="303" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>103</v>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="389.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>104</v>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>106</v>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>108</v>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>110</v>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>112</v>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>114</v>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>116</v>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>120</v>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>121</v>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="389.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>123</v>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>126</v>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>140</v>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>154</v>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>141</v>
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="B48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>148</v>
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>152</v>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
